--- a/TimeSeries/forecasted_data/irraggiamento_12h_forecast.xlsx
+++ b/TimeSeries/forecasted_data/irraggiamento_12h_forecast.xlsx
@@ -512,7322 +512,7322 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>-0.6854546070098877</v>
+        <v>0.0006519534082843614</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>-0.6715893149375916</v>
+        <v>0.00429408634637804</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>-0.7129955291748047</v>
+        <v>-0.006582492086213421</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>-0.7335652112960815</v>
+        <v>-0.0119857332432973</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>-0.6952934265136719</v>
+        <v>-0.001932506291507374</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>-0.4888017773628235</v>
+        <v>0.05230869056840443</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.08482903987169266</v>
+        <v>0.2029899515805602</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.9470562338829041</v>
+        <v>0.4294796675601438</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>1.670455932617188</v>
+        <v>0.6195021969399279</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>2.301517963409424</v>
+        <v>0.7852694809137786</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>2.752614974975586</v>
+        <v>0.903763579381671</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>2.970223903656006</v>
+        <v>0.960925061638062</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>2.963251352310181</v>
+        <v>0.9590935128479776</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>2.820929288864136</v>
+        <v>0.9217083735814193</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>2.469058752059937</v>
+        <v>0.8292790713094587</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>1.934697270393372</v>
+        <v>0.6889130737467373</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>1.273361563682556</v>
+        <v>0.5151935049133027</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>0.5283918380737305</v>
+        <v>0.3195049639597483</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>-0.08521658182144165</v>
+        <v>0.1583223919995654</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>-0.3885165154933929</v>
+        <v>0.0786516088102642</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>-0.5325297713279724</v>
+        <v>0.04082222736901392</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>-0.5914926528930664</v>
+        <v>0.0253338660742502</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>-0.6101333498954773</v>
+        <v>0.02043733045224497</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>-0.6519050598144531</v>
+        <v>0.009464743666252967</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>-0.6620532870292664</v>
+        <v>0.006799008793189509</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>-0.6634984016418457</v>
+        <v>0.006419406293483643</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>-0.7140030860900879</v>
+        <v>-0.006847156992587033</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>-0.7182201743125916</v>
+        <v>-0.007954901123611607</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>-0.6602972745895386</v>
+        <v>0.007260277889656191</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>-0.4862733483314514</v>
+        <v>0.05297285794466855</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>0.003143150359392166</v>
+        <v>0.1815327138087949</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>0.8169069886207581</v>
+        <v>0.3952920824327866</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>1.611146926879883</v>
+        <v>0.6039229157971217</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>2.230864763259888</v>
+        <v>0.7667103084055764</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>2.652073621749878</v>
+        <v>0.8773533910989786</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>2.84038519859314</v>
+        <v>0.9268190491658284</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>2.845345735549927</v>
+        <v>0.9281220823040226</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>2.70787239074707</v>
+        <v>0.8920106037570383</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>2.361851930618286</v>
+        <v>0.8011179987893109</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>1.846051216125488</v>
+        <v>0.6656275408926406</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>1.171849608421326</v>
+        <v>0.4885283590267658</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>0.4080066084861755</v>
+        <v>0.2878821890730312</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>-0.1767888367176056</v>
+        <v>0.1342682051830307</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-0.4402494430541992</v>
+        <v>0.06506241079908777</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>-0.5672909021377563</v>
+        <v>0.03169117850054742</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>-0.6126905679702759</v>
+        <v>0.01976560077417192</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>-0.6217005252838135</v>
+        <v>0.01739886647594382</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>-0.6631985306739807</v>
+        <v>0.006498176356425273</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>-0.6717786192893982</v>
+        <v>0.004244359906325823</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>-0.6755731105804443</v>
+        <v>0.003247623476803213</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>-0.7241775989532471</v>
+        <v>-0.009519796575997774</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>-0.7263323068618774</v>
+        <v>-0.01008579494120165</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>-0.6732972264289856</v>
+        <v>0.003845452400138727</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>-0.5077984929084778</v>
+        <v>0.04731863604638917</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>-0.01312245056033134</v>
+        <v>0.1772600680860278</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>0.7794508934020996</v>
+        <v>0.3854531206989169</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>1.554197072982788</v>
+        <v>0.5889633363222204</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>2.207880258560181</v>
+        <v>0.7606727419990356</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>2.664520263671875</v>
+        <v>0.8806228732185324</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>2.903400659561157</v>
+        <v>0.9433719414384225</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>2.903855562210083</v>
+        <v>0.9434914352011676</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>2.702414989471436</v>
+        <v>0.8905770543706464</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>2.31750226020813</v>
+        <v>0.7894682337102779</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>1.797282695770264</v>
+        <v>0.6528170329421622</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>1.16556441783905</v>
+        <v>0.4868773660637225</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>0.399262547492981</v>
+        <v>0.2855853003821938</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>-0.2307641208171844</v>
+        <v>0.120089985277023</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>-0.5051233768463135</v>
+        <v>0.04802133515091792</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>-0.6141422986984253</v>
+        <v>0.01938426035417454</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>-0.6202895045280457</v>
+        <v>0.01776951320621964</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>-0.5972999334335327</v>
+        <v>0.02380841045262333</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>-0.6257490515708923</v>
+        <v>0.01633540017000354</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>-0.6351661086082458</v>
+        <v>0.01386172897455987</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>-0.6444327235221863</v>
+        <v>0.01142757589457333</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>-0.700329065322876</v>
+        <v>-0.003255267173551152</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>-0.7062578201293945</v>
+        <v>-0.004812631638007492</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>-0.6431292295455933</v>
+        <v>0.01176997750587744</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>-0.4507278501987457</v>
+        <v>0.06230994430931486</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>0.09131727367639542</v>
+        <v>0.204694279908225</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>0.874173104763031</v>
+        <v>0.4103347376290093</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>1.556875705718994</v>
+        <v>0.5896669591861834</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>2.127122163772583</v>
+        <v>0.7394592172128325</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>2.573733568191528</v>
+        <v>0.8567750370369687</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>2.858396768569946</v>
+        <v>0.9315503257907456</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>2.879908561706543</v>
+        <v>0.9372010405345628</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>2.752644300460815</v>
+        <v>0.9037712825959359</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>2.420801401138306</v>
+        <v>0.8166028372726728</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>1.907458066940308</v>
+        <v>0.6817578836803078</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>1.259052157402039</v>
+        <v>0.5114347121185249</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>0.4878503978252411</v>
+        <v>0.3088555442348072</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>-0.1852577328681946</v>
+        <v>0.1320435967536861</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>-0.4728555083274841</v>
+        <v>0.0564974542374625</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>-0.5878047347068787</v>
+        <v>0.02630260789583413</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>-0.6074250936508179</v>
+        <v>0.02114873481517077</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>-0.6034151315689087</v>
+        <v>0.02220207108121378</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>-0.6418886184692383</v>
+        <v>0.01209586104594254</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>-0.6424121856689453</v>
+        <v>0.01195833048882081</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>-0.6373193264007568</v>
+        <v>0.01329612203284508</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>-0.6904752254486084</v>
+        <v>-0.000666861924989548</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>-0.710534393787384</v>
+        <v>-0.005936001394715978</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>-0.6688146591186523</v>
+        <v>0.005022932539977071</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>-0.4982885122299194</v>
+        <v>0.04981671641061158</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>-0.02101178281009197</v>
+        <v>0.1751876994192451</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>0.7469642162322998</v>
+        <v>0.3769195249872364</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>1.51594603061676</v>
+        <v>0.5789155579853984</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>2.105873346328735</v>
+        <v>0.7338775808863673</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>2.527520895004272</v>
+        <v>0.8446358986549534</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>2.70685863494873</v>
+        <v>0.8917443105289502</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>2.84709620475769</v>
+        <v>0.9285818953051099</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>2.711681842803955</v>
+        <v>0.8930112700783912</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>2.350013971328735</v>
+        <v>0.7980084053365748</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>1.825109839439392</v>
+        <v>0.6601266630604417</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>1.181132555007935</v>
+        <v>0.4909668021081927</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>0.3936034440994263</v>
+        <v>0.2840987679123206</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>-0.2583636939525604</v>
+        <v>0.1128401333539952</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>-0.5260689258575439</v>
+        <v>0.04251936133294953</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>-0.6300231218338013</v>
+        <v>0.0152126880047567</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>-0.6367346048355103</v>
+        <v>0.0134497166099585</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>-0.5913156270980835</v>
+        <v>0.02538036718475245</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>-0.634482204914093</v>
+        <v>0.01404137669910618</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>-0.6605980396270752</v>
+        <v>0.007181272972621111</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>-0.6565378308296204</v>
+        <v>0.008247808038715748</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>-0.701636791229248</v>
+        <v>-0.00359878042756423</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>-0.7155295610427856</v>
+        <v>-0.007248131214796449</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>-0.6567505598068237</v>
+        <v>0.008191928421415279</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>-0.4728469848632812</v>
+        <v>0.05649969317982001</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>0.02432927489280701</v>
+        <v>0.1870978819705159</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>0.6776074767112732</v>
+        <v>0.3587009065714699</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>1.225494384765625</v>
+        <v>0.5026197612028965</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>1.897356748580933</v>
+        <v>0.6791044708186803</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>2.430991888046265</v>
+        <v>0.8192796729158864</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>2.596857309341431</v>
+        <v>0.8628491780543288</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>2.620964288711548</v>
+        <v>0.8691815959467206</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>2.35338568687439</v>
+        <v>0.7988940870937769</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>2.032822608947754</v>
+        <v>0.7146886236411814</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>1.606260299682617</v>
+        <v>0.6026392972639855</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>1.054487228393555</v>
+        <v>0.4576996258299883</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>0.2755089700222015</v>
+        <v>0.25307772835536</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>-0.3353067338466644</v>
+        <v>0.09262874664146382</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>-0.590088427066803</v>
+        <v>0.02570272791341585</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>-0.6803104281425476</v>
+        <v>0.002003225577272422</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>-0.6813372373580933</v>
+        <v>0.001733503479419946</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>-0.6534751057624817</v>
+        <v>0.009052324221222957</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>-0.6243619918823242</v>
+        <v>0.01669975281057501</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>-0.5927047729492188</v>
+        <v>0.02501546655129624</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>-0.5291398763656616</v>
+        <v>0.04171268449278265</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>-0.6423130035400391</v>
+        <v>0.0119843836362537</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>-0.6583715677261353</v>
+        <v>0.007766122293058869</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>-0.5811129808425903</v>
+        <v>0.02806039684363695</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>-0.3133956491947174</v>
+        <v>0.09838434722341388</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>0.2597684860229492</v>
+        <v>0.2489430202701434</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>0.9901345372200012</v>
+        <v>0.4407954701182972</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>1.577198624610901</v>
+        <v>0.5950053806134763</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>2.156034708023071</v>
+        <v>0.7470539602005548</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>2.591061353683472</v>
+        <v>0.8613266972512188</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>2.729617357254028</v>
+        <v>0.8977225684484262</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>2.821901082992554</v>
+        <v>0.9219636443240551</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>2.731378078460693</v>
+        <v>0.8981850744431183</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>2.38563871383667</v>
+        <v>0.80736630760237</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>1.893402218818665</v>
+        <v>0.6780656955064309</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>1.260937929153442</v>
+        <v>0.5119300663724202</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>0.4590699970722198</v>
+        <v>0.301295512682096</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>-0.2134652435779572</v>
+        <v>0.1246340518755851</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>-0.506657600402832</v>
+        <v>0.04761832552656531</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>-0.6121846437454224</v>
+        <v>0.01989849687718298</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>-0.6302022933959961</v>
+        <v>0.01516562324443019</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>-0.6079401969909668</v>
+        <v>0.02101342754346699</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>-0.6407610177993774</v>
+        <v>0.01239205902859611</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>-0.6564664840698242</v>
+        <v>0.008266549395372719</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>-0.6282643675804138</v>
+        <v>0.01567467732044328</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>-0.6673173904418945</v>
+        <v>0.005416234861800595</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>-0.7142904996871948</v>
+        <v>-0.006922654755160018</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>-0.707493782043457</v>
+        <v>-0.005137293936786691</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>-0.5367598533630371</v>
+        <v>0.03971107002516461</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>-0.01838793605566025</v>
+        <v>0.1758769311093528</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>0.8301445841789246</v>
+        <v>0.3987693321403419</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>1.6340012550354</v>
+        <v>0.6099262874476568</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>2.270188808441162</v>
+        <v>0.7770399429684123</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>2.695545673370361</v>
+        <v>0.8887726233998854</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>2.904731750488281</v>
+        <v>0.9437215922127444</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>2.912916421890259</v>
+        <v>0.9458715405257825</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="n">
-        <v>2.772771596908569</v>
+        <v>0.9090583179475829</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="n">
-        <v>2.443545818328857</v>
+        <v>0.8225773375266539</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="n">
-        <v>1.921535611152649</v>
+        <v>0.6854557709801854</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="n">
-        <v>1.280641436576843</v>
+        <v>0.517105780883774</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="n">
-        <v>0.5365815758705139</v>
+        <v>0.3216562431126494</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="n">
-        <v>-0.1108799949288368</v>
+        <v>0.1515811303157162</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="n">
-        <v>-0.3498440086841583</v>
+        <v>0.08881009736673644</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="n">
-        <v>-0.5235410928726196</v>
+        <v>0.04318337213981802</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="n">
-        <v>-0.6037387847900391</v>
+        <v>0.02211705389938648</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="n">
-        <v>-0.6254138946533203</v>
+        <v>0.01642343914116651</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="n">
-        <v>-0.6759419441223145</v>
+        <v>0.003150738334787129</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="n">
-        <v>-0.6793674230575562</v>
+        <v>0.002250934018099254</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="n">
-        <v>-0.6698278784751892</v>
+        <v>0.004756780224344975</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="n">
-        <v>-0.7139137983322144</v>
+        <v>-0.006823702897121614</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="n">
-        <v>-0.7352837324142456</v>
+        <v>-0.01243715412477883</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="n">
-        <v>-0.6855651140213013</v>
+        <v>0.000622925442334471</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="n">
-        <v>-0.5187913179397583</v>
+        <v>0.04443104233971745</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="n">
-        <v>-0.04703133180737495</v>
+        <v>0.168352888010786</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="n">
-        <v>0.7916381359100342</v>
+        <v>0.3886544638174924</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="n">
-        <v>1.579149603843689</v>
+        <v>0.5955178635592537</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="n">
-        <v>2.233865261077881</v>
+        <v>0.7674984787431798</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="n">
-        <v>2.669862031936646</v>
+        <v>0.8820260481421718</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="n">
-        <v>2.806384563446045</v>
+        <v>0.9178877671892465</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="n">
-        <v>2.84523606300354</v>
+        <v>0.9280932735352265</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="n">
-        <v>2.759334087371826</v>
+        <v>0.9055285548647332</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="n">
-        <v>2.44675087928772</v>
+        <v>0.8234192424808375</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="n">
-        <v>1.900942444801331</v>
+        <v>0.6800463609889136</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="n">
-        <v>1.218883991241455</v>
+        <v>0.5008833439775973</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="n">
-        <v>0.5191718935966492</v>
+        <v>0.3170830702634396</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="n">
-        <v>-0.1288603246212006</v>
+        <v>0.1468580598842473</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="n">
-        <v>-0.4383589327335358</v>
+        <v>0.06555900977967845</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="n">
-        <v>-0.5938416123390198</v>
+        <v>0.02471684174301042</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="n">
-        <v>-0.6495156288146973</v>
+        <v>0.01009239905945605</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="n">
-        <v>-0.658126175403595</v>
+        <v>0.007830581913239903</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="n">
-        <v>-0.7065890431404114</v>
+        <v>-0.0048996372511593</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="n">
-        <v>-0.7112373113632202</v>
+        <v>-0.006120643682982901</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="n">
-        <v>-0.6875498294830322</v>
+        <v>0.000101580668764395</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="n">
-        <v>-0.6975077390670776</v>
+        <v>-0.002514161596274267</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="n">
-        <v>-0.7395591735839844</v>
+        <v>-0.01356022639963561</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="n">
-        <v>-0.6900028586387634</v>
+        <v>-0.0005427806789524703</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="n">
-        <v>-0.4913296103477478</v>
+        <v>0.05164467976153594</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="n">
-        <v>0.03363187611103058</v>
+        <v>0.1895414879277636</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="n">
-        <v>0.8647667169570923</v>
+        <v>0.4078638690257474</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="n">
-        <v>1.592374444007874</v>
+        <v>0.5989917626817425</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="n">
-        <v>2.216476202011108</v>
+        <v>0.7629307231950588</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="n">
-        <v>2.659406185150146</v>
+        <v>0.8792795078040236</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="n">
-        <v>2.871020078659058</v>
+        <v>0.9348662150791642</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="n">
-        <v>2.87389349937439</v>
+        <v>0.9356210048216191</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="n">
-        <v>2.680036783218384</v>
+        <v>0.8846987503533408</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="n">
-        <v>2.306076526641846</v>
+        <v>0.7864669236515598</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="n">
-        <v>1.789156079292297</v>
+        <v>0.6506823344882584</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="n">
-        <v>1.215356707572937</v>
+        <v>0.4999567976081358</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="n">
-        <v>0.4297518730163574</v>
+        <v>0.2935942320491169</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="n">
-        <v>-0.2700220346450806</v>
+        <v>0.1097777220886323</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="n">
-        <v>-0.5468077659606934</v>
+        <v>0.03707168578138575</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="n">
-        <v>-0.6388990879058838</v>
+        <v>0.0128811505066663</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="n">
-        <v>-0.6437919735908508</v>
+        <v>0.01159588799487601</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="n">
-        <v>-0.6167593598365784</v>
+        <v>0.01869681110878019</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="n">
-        <v>-0.6562632918357849</v>
+        <v>0.008319923902343124</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="n">
-        <v>-0.647504448890686</v>
+        <v>0.01062069551419212</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="n">
-        <v>-0.641655445098877</v>
+        <v>0.01215711099351313</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="n">
-        <v>-0.695513129234314</v>
+        <v>-0.001990217770736713</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="n">
-        <v>-0.7202195525169373</v>
+        <v>-0.008480097504314194</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="n">
-        <v>-0.6616997718811035</v>
+        <v>0.00689187010173789</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="n">
-        <v>-0.4534159898757935</v>
+        <v>0.06160382416349158</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="n">
-        <v>0.04513192176818848</v>
+        <v>0.1925623182758819</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="n">
-        <v>0.811330258846283</v>
+        <v>0.3938271878533895</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="n">
-        <v>1.53670859336853</v>
+        <v>0.5843694649989083</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="n">
-        <v>2.204648494720459</v>
+        <v>0.7598238227359275</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="n">
-        <v>2.664190769195557</v>
+        <v>0.8805363216566278</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="n">
-        <v>2.819235324859619</v>
+        <v>0.9212634033590377</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="n">
-        <v>2.778678178787231</v>
+        <v>0.9106098580305217</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="n">
-        <v>2.534031629562378</v>
+        <v>0.8463461374773031</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="n">
-        <v>2.243736743927002</v>
+        <v>0.7700915184458521</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="n">
-        <v>1.742099165916443</v>
+        <v>0.6383214312142721</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="n">
-        <v>1.1431884765625</v>
+        <v>0.4809996570101203</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="n">
-        <v>0.3730112016201019</v>
+        <v>0.2786896006036121</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="n">
-        <v>-0.2812881171703339</v>
+        <v>0.1068183491425339</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="n">
-        <v>-0.5410396456718445</v>
+        <v>0.03858685479371973</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="n">
-        <v>-0.6419599056243896</v>
+        <v>0.01207713534622512</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="n">
-        <v>-0.6490678787231445</v>
+        <v>0.01021001398945362</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="n">
-        <v>-0.6118640303611755</v>
+        <v>0.01998271555509257</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="n">
-        <v>-0.656927227973938</v>
+        <v>0.008145521252550414</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="n">
-        <v>-0.6673483848571777</v>
+        <v>0.00540809325322783</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="n">
-        <v>-0.6504846811294556</v>
+        <v>0.009837848536040167</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="n">
-        <v>-0.6963698267936707</v>
+        <v>-0.002215254963076285</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="n">
-        <v>-0.7219597101211548</v>
+        <v>-0.008937201854857107</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="n">
-        <v>-0.6793377995491028</v>
+        <v>0.00225871551706211</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="n">
-        <v>-0.5069211721420288</v>
+        <v>0.04754909053981754</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="n">
-        <v>-0.0316949337720871</v>
+        <v>0.1723814508527938</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="n">
-        <v>0.7483842372894287</v>
+        <v>0.3772925359153863</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="n">
-        <v>1.485426068305969</v>
+        <v>0.5708985786515399</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="n">
-        <v>2.137735605239868</v>
+        <v>0.7422471544991853</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="n">
-        <v>2.610121488571167</v>
+        <v>0.8663334107569292</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="n">
-        <v>2.80979585647583</v>
+        <v>0.9187838451543184</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="n">
-        <v>2.775548934936523</v>
+        <v>0.9097878687034622</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="n">
-        <v>2.638988733291626</v>
+        <v>0.8739162544705836</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="n">
-        <v>2.275913000106812</v>
+        <v>0.7785435728162882</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="n">
-        <v>1.743789911270142</v>
+        <v>0.6387655559619172</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="n">
-        <v>1.112392067909241</v>
+        <v>0.4729100607905685</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="n">
-        <v>0.4051640331745148</v>
+        <v>0.2871355017968001</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="n">
-        <v>-0.2674974501132965</v>
+        <v>0.1104408795922946</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="n">
-        <v>-0.5628131031990051</v>
+        <v>0.03286740608522074</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="n">
-        <v>-0.6616632342338562</v>
+        <v>0.006901467805690037</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="n">
-        <v>-0.6778518557548523</v>
+        <v>0.002649043020368669</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="n">
-        <v>-0.6600263118743896</v>
+        <v>0.007331454336909765</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="n">
-        <v>-0.6770647168159485</v>
+        <v>0.002855808564238144</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="n">
-        <v>-0.6675246357917786</v>
+        <v>0.005361795682939902</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="n">
-        <v>-0.6605140566825867</v>
+        <v>0.007203333600465434</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="n">
-        <v>-0.7113885879516602</v>
+        <v>-0.006160380995593906</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="n">
-        <v>-0.7376708388328552</v>
+        <v>-0.01306419889733898</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="n">
-        <v>-0.6822301149368286</v>
+        <v>0.00149896252476564</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="n">
-        <v>-0.4626129269599915</v>
+        <v>0.05918797404585424</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="n">
-        <v>0.1053504571318626</v>
+        <v>0.2083805145308329</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="n">
-        <v>0.8823307156562805</v>
+        <v>0.412477577691486</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="n">
-        <v>1.557747721672058</v>
+        <v>0.5898960202119907</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="n">
-        <v>2.171851634979248</v>
+        <v>0.751208748310761</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="n">
-        <v>2.604356050491333</v>
+        <v>0.8648189463068756</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="n">
-        <v>2.838769197463989</v>
+        <v>0.9263945582203952</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="n">
-        <v>2.857083320617676</v>
+        <v>0.9312053094705346</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="n">
-        <v>2.712032556533813</v>
+        <v>0.8931033955107801</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="n">
-        <v>2.368750333786011</v>
+        <v>0.8029300703465787</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="n">
-        <v>1.848989367485046</v>
+        <v>0.6663993340714611</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="n">
-        <v>1.212677478790283</v>
+        <v>0.4992530181747771</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="n">
-        <v>0.4609914720058441</v>
+        <v>0.3018002454427897</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="n">
-        <v>-0.2474539875984192</v>
+        <v>0.1157058934584462</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="n">
-        <v>-0.5331217050552368</v>
+        <v>0.04066673830221337</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="n">
-        <v>-0.6361357569694519</v>
+        <v>0.01360702188174837</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="n">
-        <v>-0.6493819355964661</v>
+        <v>0.01012751757489597</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="n">
-        <v>-0.6209665536880493</v>
+        <v>0.01759166602972309</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="n">
-        <v>-0.646970272064209</v>
+        <v>0.01076101300655607</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="n">
-        <v>-0.6574491858482361</v>
+        <v>0.008008413432796901</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="n">
-        <v>-0.6448679566383362</v>
+        <v>0.01131324892188404</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="n">
-        <v>-0.6959635019302368</v>
+        <v>-0.002108521606075053</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="n">
-        <v>-0.7291966676712036</v>
+        <v>-0.01083820482884304</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="n">
-        <v>-0.6963129043579102</v>
+        <v>-0.002200302585793568</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="n">
-        <v>-0.5202698707580566</v>
+        <v>0.04404265629691673</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="n">
-        <v>-0.02010817267000675</v>
+        <v>0.1754250596015795</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="n">
-        <v>0.7956122756004333</v>
+        <v>0.389698390262858</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="n">
-        <v>1.539931416511536</v>
+        <v>0.5852160357210818</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="n">
-        <v>2.190207719802856</v>
+        <v>0.7560305220463528</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="n">
-        <v>2.655473232269287</v>
+        <v>0.8782464003038961</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="n">
-        <v>2.850741624832153</v>
+        <v>0.9295394737287854</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="n">
-        <v>2.882319450378418</v>
+        <v>0.9378343324260088</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="n">
-        <v>2.693826675415039</v>
+        <v>0.8883210772628873</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="n">
-        <v>2.3382248878479</v>
+        <v>0.7949116505742804</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="n">
-        <v>1.82266902923584</v>
+        <v>0.6594855113853353</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="n">
-        <v>1.180700063705444</v>
+        <v>0.4908531953547233</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="n">
-        <v>0.4218041896820068</v>
+        <v>0.2915065357277813</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="n">
-        <v>-0.251686155796051</v>
+        <v>0.1145941881217122</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="n">
-        <v>-0.5222219824790955</v>
+        <v>0.04352987586928764</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="n">
-        <v>-0.6302818059921265</v>
+        <v>0.01514473688705312</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="n">
-        <v>-0.6390993595123291</v>
+        <v>0.0128285431897345</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="n">
-        <v>-0.6118480563163757</v>
+        <v>0.01998691161489546</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="n">
-        <v>-0.648996114730835</v>
+        <v>0.0102288649446875</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="n">
-        <v>-0.6524882912635803</v>
+        <v>0.009311540512628613</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="n">
-        <v>-0.6468578577041626</v>
+        <v>0.01079054199457197</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="n">
-        <v>-0.6981239914894104</v>
+        <v>-0.002676038694416516</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="n">
-        <v>-0.7089028358459473</v>
+        <v>-0.005507423988056925</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="n">
-        <v>-0.6630383133888245</v>
+        <v>0.006540262209970726</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="n">
-        <v>-0.4979707896709442</v>
+        <v>0.04990017572695238</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="n">
-        <v>0.01407794654369354</v>
+        <v>0.1844050645062432</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="n">
-        <v>0.8377223014831543</v>
+        <v>0.4007598458378098</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="n">
-        <v>1.608780860900879</v>
+        <v>0.6033013979242272</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="n">
-        <v>2.222478866577148</v>
+        <v>0.7645075022645733</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="n">
-        <v>2.659220695495605</v>
+        <v>0.8792307834081035</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="n">
-        <v>2.888160705566406</v>
+        <v>0.9393687125031864</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="n">
-        <v>2.896398544311523</v>
+        <v>0.9415326268063149</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="n">
-        <v>2.746694326400757</v>
+        <v>0.9022083442609952</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="n">
-        <v>2.41227912902832</v>
+        <v>0.8143642080539495</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="n">
-        <v>1.887363910675049</v>
+        <v>0.6764795535870577</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="n">
-        <v>1.245466709136963</v>
+        <v>0.5078660885116797</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="n">
-        <v>0.4827835857868195</v>
+        <v>0.3075245947733719</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="n">
-        <v>-0.1686089336872101</v>
+        <v>0.1364169009409039</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="n">
-        <v>-0.4499781131744385</v>
+        <v>0.06250688512360855</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="n">
-        <v>-0.5643588304519653</v>
+        <v>0.03246137467153243</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="n">
-        <v>-0.6117446422576904</v>
+        <v>0.02001407640503736</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="n">
-        <v>-0.6182117462158203</v>
+        <v>0.01831529846244762</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="n">
-        <v>-0.6611849069595337</v>
+        <v>0.007027114745683433</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="n">
-        <v>-0.6622326970100403</v>
+        <v>0.00675188140510477</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="n">
-        <v>-0.665119469165802</v>
+        <v>0.005993584508187655</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="n">
-        <v>-0.7200953364372253</v>
+        <v>-0.008447468442264822</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="n">
-        <v>-0.7266491055488586</v>
+        <v>-0.01016901157497918</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="n">
-        <v>-0.6755984425544739</v>
+        <v>0.003240969277488903</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="n">
-        <v>-0.4858208894729614</v>
+        <v>0.05309170977289157</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="n">
-        <v>-0.01000309363007545</v>
+        <v>0.1780794603182373</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="n">
-        <v>0.7956355810165405</v>
+        <v>0.3897045121262271</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="n">
-        <v>1.56107771396637</v>
+        <v>0.5907707421114985</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="n">
-        <v>2.181279182434082</v>
+        <v>0.7536851751275677</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="n">
-        <v>2.62433910369873</v>
+        <v>0.8700680918647801</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="n">
-        <v>2.828924179077148</v>
+        <v>0.9238084701988889</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="n">
-        <v>2.852567911148071</v>
+        <v>0.9300192023569969</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="n">
-        <v>2.721872568130493</v>
+        <v>0.8956881683493632</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="n">
-        <v>2.366448879241943</v>
+        <v>0.8023255245961707</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="n">
-        <v>1.806954860687256</v>
+        <v>0.6553577158389357</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="n">
-        <v>1.150647044181824</v>
+        <v>0.4829588724854016</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="n">
-        <v>0.4501601755619049</v>
+        <v>0.2989550820423338</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="n">
-        <v>-0.1454742699861526</v>
+        <v>0.1424939110924389</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="n">
-        <v>-0.4252403378486633</v>
+        <v>0.06900500040739617</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="n">
-        <v>-0.5518659353256226</v>
+        <v>0.03574300657618715</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="n">
-        <v>-0.6071794629096985</v>
+        <v>0.02121325706311006</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="n">
-        <v>-0.6397353410720825</v>
+        <v>0.01266148364459688</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="n">
-        <v>-0.6773602962493896</v>
+        <v>0.002778165800945032</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="n">
-        <v>-0.6769954562187195</v>
+        <v>0.002874001928010406</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="n">
-        <v>-0.6665006875991821</v>
+        <v>0.005630766247693347</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="n">
-        <v>-0.7175572514533997</v>
+        <v>-0.007780764641791477</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="n">
-        <v>-0.731497049331665</v>
+        <v>-0.01144246875433896</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="n">
-        <v>-0.677937924861908</v>
+        <v>0.002626434399639638</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="n">
-        <v>-0.5147140622138977</v>
+        <v>0.04550205529052714</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" t="n">
-        <v>-0.06936509162187576</v>
+        <v>0.1624862591776008</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" t="n">
-        <v>0.6856368780136108</v>
+        <v>0.3608100685569465</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="n">
-        <v>1.44163978099823</v>
+        <v>0.5593968029652568</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" t="n">
-        <v>2.084435939788818</v>
+        <v>0.7282464060031246</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" t="n">
-        <v>2.563169002532959</v>
+        <v>0.8539999384410575</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" t="n">
-        <v>2.818434953689575</v>
+        <v>0.9210531619745852</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="n">
-        <v>2.709527969360352</v>
+        <v>0.8924454909103412</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="n">
-        <v>2.503280639648438</v>
+        <v>0.8382684718456983</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" t="n">
-        <v>2.168218374252319</v>
+        <v>0.7502543639027566</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" t="n">
-        <v>1.633945822715759</v>
+        <v>0.6099117264938632</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" t="n">
-        <v>0.8562949895858765</v>
+        <v>0.4056385168917735</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="n">
-        <v>0.07385844737291336</v>
+        <v>0.2001081979123455</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" t="n">
-        <v>-0.4053504765033722</v>
+        <v>0.07422966634029379</v>
       </c>
     </row>
     <row r="429">
       <c r="A429" t="n">
-        <v>-0.5957096219062805</v>
+        <v>0.02422615325710478</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" t="n">
-        <v>-0.6676831245422363</v>
+        <v>0.005320163880641798</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="n">
-        <v>-0.6637177467346191</v>
+        <v>0.006361788755891662</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" t="n">
-        <v>-0.6351301670074463</v>
+        <v>0.0138711701091164</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" t="n">
-        <v>-0.6618653535842896</v>
+        <v>0.006848375123631761</v>
       </c>
     </row>
     <row r="434">
       <c r="A434" t="n">
-        <v>-0.6739069223403931</v>
+        <v>0.003685297565348383</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" t="n">
-        <v>-0.6719627380371094</v>
+        <v>0.004195995620015602</v>
       </c>
     </row>
     <row r="436">
       <c r="A436" t="n">
-        <v>-0.7153254151344299</v>
+        <v>-0.007194506196793043</v>
       </c>
     </row>
     <row r="437">
       <c r="A437" t="n">
-        <v>-0.7246619462966919</v>
+        <v>-0.009647024866887038</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" t="n">
-        <v>-0.6748997569084167</v>
+        <v>0.003424499923046859</v>
       </c>
     </row>
     <row r="439">
       <c r="A439" t="n">
-        <v>-0.5261497497558594</v>
+        <v>0.04249813052290205</v>
       </c>
     </row>
     <row r="440">
       <c r="A440" t="n">
-        <v>-0.1140399575233459</v>
+        <v>0.1507510717934293</v>
       </c>
     </row>
     <row r="441">
       <c r="A441" t="n">
-        <v>0.6620648503303528</v>
+        <v>0.3546181716971328</v>
       </c>
     </row>
     <row r="442">
       <c r="A442" t="n">
-        <v>1.368137121200562</v>
+        <v>0.5400891348043041</v>
       </c>
     </row>
     <row r="443">
       <c r="A443" t="n">
-        <v>2.004715919494629</v>
+        <v>0.7073055624763513</v>
       </c>
     </row>
     <row r="444">
       <c r="A444" t="n">
-        <v>2.478725671768188</v>
+        <v>0.8318183763955507</v>
       </c>
     </row>
     <row r="445">
       <c r="A445" t="n">
-        <v>2.690945625305176</v>
+        <v>0.8875642834321682</v>
       </c>
     </row>
     <row r="446">
       <c r="A446" t="n">
-        <v>2.72105598449707</v>
+        <v>0.8954736682773494</v>
       </c>
     </row>
     <row r="447">
       <c r="A447" t="n">
-        <v>2.594615697860718</v>
+        <v>0.8622603518712419</v>
       </c>
     </row>
     <row r="448">
       <c r="A448" t="n">
-        <v>2.283612966537476</v>
+        <v>0.7805661988967998</v>
       </c>
     </row>
     <row r="449">
       <c r="A449" t="n">
-        <v>1.770673394203186</v>
+        <v>0.6458273054130348</v>
       </c>
     </row>
     <row r="450">
       <c r="A450" t="n">
-        <v>1.07939076423645</v>
+        <v>0.4642412830627007</v>
       </c>
     </row>
     <row r="451">
       <c r="A451" t="n">
-        <v>0.3096231818199158</v>
+        <v>0.2620388446302791</v>
       </c>
     </row>
     <row r="452">
       <c r="A452" t="n">
-        <v>-0.2954370081424713</v>
+        <v>0.1031017204859993</v>
       </c>
     </row>
     <row r="453">
       <c r="A453" t="n">
-        <v>-0.5510203242301941</v>
+        <v>0.03596513157776798</v>
       </c>
     </row>
     <row r="454">
       <c r="A454" t="n">
-        <v>-0.6476340889930725</v>
+        <v>0.01058664167064252</v>
       </c>
     </row>
     <row r="455">
       <c r="A455" t="n">
-        <v>-0.6466823220252991</v>
+        <v>0.01083665168158512</v>
       </c>
     </row>
     <row r="456">
       <c r="A456" t="n">
-        <v>-0.6109658479690552</v>
+        <v>0.020218649977368</v>
       </c>
     </row>
     <row r="457">
       <c r="A457" t="n">
-        <v>-0.6515589356422424</v>
+        <v>0.009555663514295515</v>
       </c>
     </row>
     <row r="458">
       <c r="A458" t="n">
-        <v>-0.6574945449829102</v>
+        <v>0.007996498501789406</v>
       </c>
     </row>
     <row r="459">
       <c r="A459" t="n">
-        <v>-0.6545705199241638</v>
+        <v>0.008764580985933412</v>
       </c>
     </row>
     <row r="460">
       <c r="A460" t="n">
-        <v>-0.7065792679786682</v>
+        <v>-0.004897069513070978</v>
       </c>
     </row>
     <row r="461">
       <c r="A461" t="n">
-        <v>-0.7142499089241028</v>
+        <v>-0.006911992379317583</v>
       </c>
     </row>
     <row r="462">
       <c r="A462" t="n">
-        <v>-0.6596447229385376</v>
+        <v>0.007431690063992358</v>
       </c>
     </row>
     <row r="463">
       <c r="A463" t="n">
-        <v>-0.5053297877311707</v>
+        <v>0.04796711516921112</v>
       </c>
     </row>
     <row r="464">
       <c r="A464" t="n">
-        <v>-0.04520881548523903</v>
+        <v>0.1688316263375702</v>
       </c>
     </row>
     <row r="465">
       <c r="A465" t="n">
-        <v>0.7510802149772644</v>
+        <v>0.378000714948762</v>
       </c>
     </row>
     <row r="466">
       <c r="A466" t="n">
-        <v>1.455430150032043</v>
+        <v>0.5630192551303197</v>
       </c>
     </row>
     <row r="467">
       <c r="A467" t="n">
-        <v>2.106636047363281</v>
+        <v>0.734077927085016</v>
       </c>
     </row>
     <row r="468">
       <c r="A468" t="n">
-        <v>2.574807167053223</v>
+        <v>0.8570570498323782</v>
       </c>
     </row>
     <row r="469">
       <c r="A469" t="n">
-        <v>2.802903413772583</v>
+        <v>0.9169733392910069</v>
       </c>
     </row>
     <row r="470">
       <c r="A470" t="n">
-        <v>2.852648019790649</v>
+        <v>0.9300402452837697</v>
       </c>
     </row>
     <row r="471">
       <c r="A471" t="n">
-        <v>2.649142742156982</v>
+        <v>0.8765835080667848</v>
       </c>
     </row>
     <row r="472">
       <c r="A472" t="n">
-        <v>2.298379182815552</v>
+        <v>0.7844449864763889</v>
       </c>
     </row>
     <row r="473">
       <c r="A473" t="n">
-        <v>1.793533802032471</v>
+        <v>0.6518322740714053</v>
       </c>
     </row>
     <row r="474">
       <c r="A474" t="n">
-        <v>1.132490038871765</v>
+        <v>0.4781893929279505</v>
       </c>
     </row>
     <row r="475">
       <c r="A475" t="n">
-        <v>0.3658062517642975</v>
+        <v>0.2767970054061716</v>
       </c>
     </row>
     <row r="476">
       <c r="A476" t="n">
-        <v>-0.2720773220062256</v>
+        <v>0.1092378394986196</v>
       </c>
     </row>
     <row r="477">
       <c r="A477" t="n">
-        <v>-0.5502808690071106</v>
+        <v>0.03615937156998705</v>
       </c>
     </row>
     <row r="478">
       <c r="A478" t="n">
-        <v>-0.646126389503479</v>
+        <v>0.01098268395688959</v>
       </c>
     </row>
     <row r="479">
       <c r="A479" t="n">
-        <v>-0.649517297744751</v>
+        <v>0.01009196066514831</v>
       </c>
     </row>
     <row r="480">
       <c r="A480" t="n">
-        <v>-0.6266830563545227</v>
+        <v>0.01609005592705071</v>
       </c>
     </row>
     <row r="481">
       <c r="A481" t="n">
-        <v>-0.6457251906394958</v>
+        <v>0.0110880708170884</v>
       </c>
     </row>
     <row r="482">
       <c r="A482" t="n">
-        <v>-0.6574416756629944</v>
+        <v>0.008010386207181835</v>
       </c>
     </row>
     <row r="483">
       <c r="A483" t="n">
-        <v>-0.6546315550804138</v>
+        <v>0.008748548279820856</v>
       </c>
     </row>
     <row r="484">
       <c r="A484" t="n">
-        <v>-0.7046214938163757</v>
+        <v>-0.004382801676183407</v>
       </c>
     </row>
     <row r="485">
       <c r="A485" t="n">
-        <v>-0.7242105603218079</v>
+        <v>-0.009528454863576147</v>
       </c>
     </row>
     <row r="486">
       <c r="A486" t="n">
-        <v>-0.6826010942459106</v>
+        <v>0.001401513732925269</v>
       </c>
     </row>
     <row r="487">
       <c r="A487" t="n">
-        <v>-0.5164958238601685</v>
+        <v>0.04503402239616922</v>
       </c>
     </row>
     <row r="488">
       <c r="A488" t="n">
-        <v>-0.05648957937955856</v>
+        <v>0.1658683968915456</v>
       </c>
     </row>
     <row r="489">
       <c r="A489" t="n">
-        <v>0.7501783967018127</v>
+        <v>0.3777638254531733</v>
       </c>
     </row>
     <row r="490">
       <c r="A490" t="n">
-        <v>1.47761070728302</v>
+        <v>0.5688456407360343</v>
       </c>
     </row>
     <row r="491">
       <c r="A491" t="n">
-        <v>2.112453699111938</v>
+        <v>0.7356061070141267</v>
       </c>
     </row>
     <row r="492">
       <c r="A492" t="n">
-        <v>2.589728593826294</v>
+        <v>0.8609766080825894</v>
       </c>
     </row>
     <row r="493">
       <c r="A493" t="n">
-        <v>2.839500904083252</v>
+        <v>0.9265867628104709</v>
       </c>
     </row>
     <row r="494">
       <c r="A494" t="n">
-        <v>2.8556809425354</v>
+        <v>0.9308369329964954</v>
       </c>
     </row>
     <row r="495">
       <c r="A495" t="n">
-        <v>2.681962728500366</v>
+        <v>0.8852046573845018</v>
       </c>
     </row>
     <row r="496">
       <c r="A496" t="n">
-        <v>2.339853525161743</v>
+        <v>0.795339460790901</v>
       </c>
     </row>
     <row r="497">
       <c r="A497" t="n">
-        <v>1.819579601287842</v>
+        <v>0.6586739808939037</v>
       </c>
     </row>
     <row r="498">
       <c r="A498" t="n">
-        <v>1.141765594482422</v>
+        <v>0.4806258945488714</v>
       </c>
     </row>
     <row r="499">
       <c r="A499" t="n">
-        <v>0.3570947647094727</v>
+        <v>0.2745086732328054</v>
       </c>
     </row>
     <row r="500">
       <c r="A500" t="n">
-        <v>-0.2704331278800964</v>
+        <v>0.1096697361764661</v>
       </c>
     </row>
     <row r="501">
       <c r="A501" t="n">
-        <v>-0.5328059196472168</v>
+        <v>0.04074968876801835</v>
       </c>
     </row>
     <row r="502">
       <c r="A502" t="n">
-        <v>-0.630530059337616</v>
+        <v>0.01507952573377305</v>
       </c>
     </row>
     <row r="503">
       <c r="A503" t="n">
-        <v>-0.6346223950386047</v>
+        <v>0.01400455157725392</v>
       </c>
     </row>
     <row r="504">
       <c r="A504" t="n">
-        <v>-0.6075416803359985</v>
+        <v>0.02111810984138549</v>
       </c>
     </row>
     <row r="505">
       <c r="A505" t="n">
-        <v>-0.6401183009147644</v>
+        <v>0.01256088780790435</v>
       </c>
     </row>
     <row r="506">
       <c r="A506" t="n">
-        <v>-0.5993489027023315</v>
+        <v>0.02327018749820431</v>
       </c>
     </row>
     <row r="507">
       <c r="A507" t="n">
-        <v>-0.6226640343666077</v>
+        <v>0.01714577204790729</v>
       </c>
     </row>
     <row r="508">
       <c r="A508" t="n">
-        <v>-0.6507658958435059</v>
+        <v>0.009763979095181757</v>
       </c>
     </row>
     <row r="509">
       <c r="A509" t="n">
-        <v>-0.6778631806373596</v>
+        <v>0.002646068201851676</v>
       </c>
     </row>
     <row r="510">
       <c r="A510" t="n">
-        <v>-0.6036617159843445</v>
+        <v>0.02213729832224148</v>
       </c>
     </row>
     <row r="511">
       <c r="A511" t="n">
-        <v>-0.4434569776058197</v>
+        <v>0.06421985608191216</v>
       </c>
     </row>
     <row r="512">
       <c r="A512" t="n">
-        <v>-0.05417736619710922</v>
+        <v>0.1664757687195448</v>
       </c>
     </row>
     <row r="513">
       <c r="A513" t="n">
-        <v>0.6961022615432739</v>
+        <v>0.3635591140054248</v>
       </c>
     </row>
     <row r="514">
       <c r="A514" t="n">
-        <v>1.367122054100037</v>
+        <v>0.5398224971235455</v>
       </c>
     </row>
     <row r="515">
       <c r="A515" t="n">
-        <v>1.999499082565308</v>
+        <v>0.7059352044980358</v>
       </c>
     </row>
     <row r="516">
       <c r="A516" t="n">
-        <v>2.484969615936279</v>
+        <v>0.8334585347564163</v>
       </c>
     </row>
     <row r="517">
       <c r="A517" t="n">
-        <v>2.750316858291626</v>
+        <v>0.9031599104198784</v>
       </c>
     </row>
     <row r="518">
       <c r="A518" t="n">
-        <v>2.846593856811523</v>
+        <v>0.9284499386184726</v>
       </c>
     </row>
     <row r="519">
       <c r="A519" t="n">
-        <v>2.661271095275879</v>
+        <v>0.879769382129072</v>
       </c>
     </row>
     <row r="520">
       <c r="A520" t="n">
-        <v>2.277453184127808</v>
+        <v>0.7789481481345972</v>
       </c>
     </row>
     <row r="521">
       <c r="A521" t="n">
-        <v>1.715360283851624</v>
+        <v>0.6312976654985345</v>
       </c>
     </row>
     <row r="522">
       <c r="A522" t="n">
-        <v>1.002674698829651</v>
+        <v>0.4440895179760254</v>
       </c>
     </row>
     <row r="523">
       <c r="A523" t="n">
-        <v>0.2275969386100769</v>
+        <v>0.2404922027979327</v>
       </c>
     </row>
     <row r="524">
       <c r="A524" t="n">
-        <v>-0.3171088993549347</v>
+        <v>0.09740895120251568</v>
       </c>
     </row>
     <row r="525">
       <c r="A525" t="n">
-        <v>-0.5624711513519287</v>
+        <v>0.03295722994749387</v>
       </c>
     </row>
     <row r="526">
       <c r="A526" t="n">
-        <v>-0.6552842855453491</v>
+        <v>0.008577089134666038</v>
       </c>
     </row>
     <row r="527">
       <c r="A527" t="n">
-        <v>-0.6510887742042542</v>
+        <v>0.009679165453568783</v>
       </c>
     </row>
     <row r="528">
       <c r="A528" t="n">
-        <v>-0.6220263242721558</v>
+        <v>0.01731328564429224</v>
       </c>
     </row>
     <row r="529">
       <c r="A529" t="n">
-        <v>-0.649746298789978</v>
+        <v>0.01003180670334711</v>
       </c>
     </row>
     <row r="530">
       <c r="A530" t="n">
-        <v>-0.6613152027130127</v>
+        <v>0.006992888675798614</v>
       </c>
     </row>
     <row r="531">
       <c r="A531" t="n">
-        <v>-0.6613163948059082</v>
+        <v>0.006992575537007356</v>
       </c>
     </row>
     <row r="532">
       <c r="A532" t="n">
-        <v>-0.7127727270126343</v>
+        <v>-0.006523966446126794</v>
       </c>
     </row>
     <row r="533">
       <c r="A533" t="n">
-        <v>-0.7258474230766296</v>
+        <v>-0.009958425737856325</v>
       </c>
     </row>
     <row r="534">
       <c r="A534" t="n">
-        <v>-0.6779018640518188</v>
+        <v>0.00263590684807527</v>
       </c>
     </row>
     <row r="535">
       <c r="A535" t="n">
-        <v>-0.5510451793670654</v>
+        <v>0.03595860263397019</v>
       </c>
     </row>
     <row r="536">
       <c r="A536" t="n">
-        <v>-0.1571315377950668</v>
+        <v>0.1394317816519882</v>
       </c>
     </row>
     <row r="537">
       <c r="A537" t="n">
-        <v>0.6084792613983154</v>
+        <v>0.3405423168619882</v>
       </c>
     </row>
     <row r="538">
       <c r="A538" t="n">
-        <v>1.35520076751709</v>
+        <v>0.5366910152693003</v>
       </c>
     </row>
     <row r="539">
       <c r="A539" t="n">
-        <v>1.995821714401245</v>
+        <v>0.7049692339547546</v>
       </c>
     </row>
     <row r="540">
       <c r="A540" t="n">
-        <v>2.462169885635376</v>
+        <v>0.8274695048625209</v>
       </c>
     </row>
     <row r="541">
       <c r="A541" t="n">
-        <v>2.769468307495117</v>
+        <v>0.9081906103569992</v>
       </c>
     </row>
     <row r="542">
       <c r="A542" t="n">
-        <v>2.796802282333374</v>
+        <v>0.9153706949573341</v>
       </c>
     </row>
     <row r="543">
       <c r="A543" t="n">
-        <v>2.606240510940552</v>
+        <v>0.8653139561081007</v>
       </c>
     </row>
     <row r="544">
       <c r="A544" t="n">
-        <v>2.287962436676025</v>
+        <v>0.7817087170905939</v>
       </c>
     </row>
     <row r="545">
       <c r="A545" t="n">
-        <v>1.764365911483765</v>
+        <v>0.6441704567545948</v>
       </c>
     </row>
     <row r="546">
       <c r="A546" t="n">
-        <v>1.113585948944092</v>
+        <v>0.4732236692900161</v>
       </c>
     </row>
     <row r="547">
       <c r="A547" t="n">
-        <v>0.3684254586696625</v>
+        <v>0.2774850183013902</v>
       </c>
     </row>
     <row r="548">
       <c r="A548" t="n">
-        <v>-0.2221581339836121</v>
+        <v>0.1223506046673626</v>
       </c>
     </row>
     <row r="549">
       <c r="A549" t="n">
-        <v>-0.4759785234928131</v>
+        <v>0.05567710106058729</v>
       </c>
     </row>
     <row r="550">
       <c r="A550" t="n">
-        <v>-0.5863528847694397</v>
+        <v>0.02668397962971061</v>
       </c>
     </row>
     <row r="551">
       <c r="A551" t="n">
-        <v>-0.6223974227905273</v>
+        <v>0.01721580553857277</v>
       </c>
     </row>
     <row r="552">
       <c r="A552" t="n">
-        <v>-0.6220787167549133</v>
+        <v>0.01729952319441633</v>
       </c>
     </row>
     <row r="553">
       <c r="A553" t="n">
-        <v>-0.6629834175109863</v>
+        <v>0.006554682251308286</v>
       </c>
     </row>
     <row r="554">
       <c r="A554" t="n">
-        <v>-0.670728862285614</v>
+        <v>0.004520109925910065</v>
       </c>
     </row>
     <row r="555">
       <c r="A555" t="n">
-        <v>-0.66945481300354</v>
+        <v>0.004854777009070027</v>
       </c>
     </row>
     <row r="556">
       <c r="A556" t="n">
-        <v>-0.7200847268104553</v>
+        <v>-0.0084446815070226</v>
       </c>
     </row>
     <row r="557">
       <c r="A557" t="n">
-        <v>-0.7299723029136658</v>
+        <v>-0.01104194858337687</v>
       </c>
     </row>
     <row r="558">
       <c r="A558" t="n">
-        <v>-0.6826968193054199</v>
+        <v>0.001376368687987045</v>
       </c>
     </row>
     <row r="559">
       <c r="A559" t="n">
-        <v>-0.5135462284088135</v>
+        <v>0.04580882170738576</v>
       </c>
     </row>
     <row r="560">
       <c r="A560" t="n">
-        <v>-0.1417760848999023</v>
+        <v>0.1434653498218626</v>
       </c>
     </row>
     <row r="561">
       <c r="A561" t="n">
-        <v>0.5815436840057373</v>
+        <v>0.3334668832456926</v>
       </c>
     </row>
     <row r="562">
       <c r="A562" t="n">
-        <v>1.343137264251709</v>
+        <v>0.5335221759572577</v>
       </c>
     </row>
     <row r="563">
       <c r="A563" t="n">
-        <v>1.991378784179688</v>
+        <v>0.7038021656797258</v>
       </c>
     </row>
     <row r="564">
       <c r="A564" t="n">
-        <v>2.417391061782837</v>
+        <v>0.8157070098186341</v>
       </c>
     </row>
     <row r="565">
       <c r="A565" t="n">
-        <v>2.682291746139526</v>
+        <v>0.8852910836908898</v>
       </c>
     </row>
     <row r="566">
       <c r="A566" t="n">
-        <v>2.800851106643677</v>
+        <v>0.9164342395479723</v>
       </c>
     </row>
     <row r="567">
       <c r="A567" t="n">
-        <v>2.656788110733032</v>
+        <v>0.8785917923906565</v>
       </c>
     </row>
     <row r="568">
       <c r="A568" t="n">
-        <v>2.320676803588867</v>
+        <v>0.7903021223114053</v>
       </c>
     </row>
     <row r="569">
       <c r="A569" t="n">
-        <v>1.778008818626404</v>
+        <v>0.6477541736511787</v>
       </c>
     </row>
     <row r="570">
       <c r="A570" t="n">
-        <v>1.120582938194275</v>
+        <v>0.4750616374253213</v>
       </c>
     </row>
     <row r="571">
       <c r="A571" t="n">
-        <v>0.3859704732894897</v>
+        <v>0.2820937402318779</v>
       </c>
     </row>
     <row r="572">
       <c r="A572" t="n">
-        <v>-0.2029900252819061</v>
+        <v>0.1273856807190914</v>
       </c>
     </row>
     <row r="573">
       <c r="A573" t="n">
-        <v>-0.4702380895614624</v>
+        <v>0.05718499742449423</v>
       </c>
     </row>
     <row r="574">
       <c r="A574" t="n">
-        <v>-0.5850220918655396</v>
+        <v>0.02703355211933459</v>
       </c>
     </row>
     <row r="575">
       <c r="A575" t="n">
-        <v>-0.6345199346542358</v>
+        <v>0.01403146585636278</v>
       </c>
     </row>
     <row r="576">
       <c r="A576" t="n">
-        <v>-0.6444106101989746</v>
+        <v>0.01143338461915122</v>
       </c>
     </row>
     <row r="577">
       <c r="A577" t="n">
-        <v>-0.6777395606040955</v>
+        <v>0.002678540694505432</v>
       </c>
     </row>
     <row r="578">
       <c r="A578" t="n">
-        <v>-0.6913171410560608</v>
+        <v>-0.0008880161963174815</v>
       </c>
     </row>
     <row r="579">
       <c r="A579" t="n">
-        <v>-0.6738798022270203</v>
+        <v>0.003692421472849566</v>
       </c>
     </row>
     <row r="580">
       <c r="A580" t="n">
-        <v>-0.7226656675338745</v>
+        <v>-0.00912264264704174</v>
       </c>
     </row>
     <row r="581">
       <c r="A581" t="n">
-        <v>-0.7399908900260925</v>
+        <v>-0.0136736296128907</v>
       </c>
     </row>
     <row r="582">
       <c r="A582" t="n">
-        <v>-0.6953469514846802</v>
+        <v>-0.001946566223234969</v>
       </c>
     </row>
     <row r="583">
       <c r="A583" t="n">
-        <v>-0.5433489680290222</v>
+        <v>0.03798024232728933</v>
       </c>
     </row>
     <row r="584">
       <c r="A584" t="n">
-        <v>-0.1305821537971497</v>
+        <v>0.14640577004262</v>
       </c>
     </row>
     <row r="585">
       <c r="A585" t="n">
-        <v>0.596246063709259</v>
+        <v>0.3373289022430097</v>
       </c>
     </row>
     <row r="586">
       <c r="A586" t="n">
-        <v>1.315779089927673</v>
+        <v>0.5263357346394603</v>
       </c>
     </row>
     <row r="587">
       <c r="A587" t="n">
-        <v>1.94104278087616</v>
+        <v>0.6905799115326186</v>
       </c>
     </row>
     <row r="588">
       <c r="A588" t="n">
-        <v>2.457044363021851</v>
+        <v>0.826123133315616</v>
       </c>
     </row>
     <row r="589">
       <c r="A589" t="n">
-        <v>2.701863050460815</v>
+        <v>0.8904320711102927</v>
       </c>
     </row>
     <row r="590">
       <c r="A590" t="n">
-        <v>2.760257720947266</v>
+        <v>0.905771174800202</v>
       </c>
     </row>
     <row r="591">
       <c r="A591" t="n">
-        <v>2.596682071685791</v>
+        <v>0.8628031466520134</v>
       </c>
     </row>
     <row r="592">
       <c r="A592" t="n">
-        <v>2.252238035202026</v>
+        <v>0.7723246364218492</v>
       </c>
     </row>
     <row r="593">
       <c r="A593" t="n">
-        <v>1.751679301261902</v>
+        <v>0.6408379397963602</v>
       </c>
     </row>
     <row r="594">
       <c r="A594" t="n">
-        <v>1.093818068504333</v>
+        <v>0.4680310452839343</v>
       </c>
     </row>
     <row r="595">
       <c r="A595" t="n">
-        <v>0.3039271533489227</v>
+        <v>0.2605426126863467</v>
       </c>
     </row>
     <row r="596">
       <c r="A596" t="n">
-        <v>-0.2984160482883453</v>
+        <v>0.1023191866466386</v>
       </c>
     </row>
     <row r="597">
       <c r="A597" t="n">
-        <v>-0.5550668835639954</v>
+        <v>0.03490218195083328</v>
       </c>
     </row>
     <row r="598">
       <c r="A598" t="n">
-        <v>-0.6438388228416443</v>
+        <v>0.01158358164037945</v>
       </c>
     </row>
     <row r="599">
       <c r="A599" t="n">
-        <v>-0.6391801834106445</v>
+        <v>0.01280731237968702</v>
       </c>
     </row>
     <row r="600">
       <c r="A600" t="n">
-        <v>-0.6135444641113281</v>
+        <v>0.01954129945799182</v>
       </c>
     </row>
     <row r="601">
       <c r="A601" t="n">
-        <v>-0.642265796661377</v>
+        <v>0.01199678393238762</v>
       </c>
     </row>
     <row r="602">
       <c r="A602" t="n">
-        <v>-0.6505528092384338</v>
+        <v>0.009819952654119612</v>
       </c>
     </row>
     <row r="603">
       <c r="A603" t="n">
-        <v>-0.6534585952758789</v>
+        <v>0.009056661193481919</v>
       </c>
     </row>
     <row r="604">
       <c r="A604" t="n">
-        <v>-0.6961221098899841</v>
+        <v>-0.002150184722252285</v>
       </c>
     </row>
     <row r="605">
       <c r="A605" t="n">
-        <v>-0.707840621471405</v>
+        <v>-0.00522840166810401</v>
       </c>
     </row>
     <row r="606">
       <c r="A606" t="n">
-        <v>-0.6680684089660645</v>
+        <v>0.005218957423306303</v>
       </c>
     </row>
     <row r="607">
       <c r="A607" t="n">
-        <v>-0.5138804912567139</v>
+        <v>0.04572101759031624</v>
       </c>
     </row>
     <row r="608">
       <c r="A608" t="n">
-        <v>-0.1274093985557556</v>
+        <v>0.1472391889355605</v>
       </c>
     </row>
     <row r="609">
       <c r="A609" t="n">
-        <v>0.4285131990909576</v>
+        <v>0.2932688573595876</v>
       </c>
     </row>
     <row r="610">
       <c r="A610" t="n">
-        <v>1.145280838012695</v>
+        <v>0.4815492782165413</v>
       </c>
     </row>
     <row r="611">
       <c r="A611" t="n">
-        <v>1.846801042556763</v>
+        <v>0.6658245051923437</v>
       </c>
     </row>
     <row r="612">
       <c r="A612" t="n">
-        <v>2.245454072952271</v>
+        <v>0.7705426261885424</v>
       </c>
     </row>
     <row r="613">
       <c r="A613" t="n">
-        <v>2.613031148910522</v>
+        <v>0.8670977199186385</v>
       </c>
     </row>
     <row r="614">
       <c r="A614" t="n">
-        <v>2.752507925033569</v>
+        <v>0.9037354595182157</v>
       </c>
     </row>
     <row r="615">
       <c r="A615" t="n">
-        <v>2.588612079620361</v>
+        <v>0.8606833222906944</v>
       </c>
     </row>
     <row r="616">
       <c r="A616" t="n">
-        <v>2.243271112442017</v>
+        <v>0.7699692064339856</v>
       </c>
     </row>
     <row r="617">
       <c r="A617" t="n">
-        <v>1.729630827903748</v>
+        <v>0.6350462499687173</v>
       </c>
     </row>
     <row r="618">
       <c r="A618" t="n">
-        <v>1.081088542938232</v>
+        <v>0.4646872553292143</v>
       </c>
     </row>
     <row r="619">
       <c r="A619" t="n">
-        <v>0.3063416182994843</v>
+        <v>0.2611768439941662</v>
       </c>
     </row>
     <row r="620">
       <c r="A620" t="n">
-        <v>-0.3260226249694824</v>
+        <v>0.09506749503321212</v>
       </c>
     </row>
     <row r="621">
       <c r="A621" t="n">
-        <v>-0.5813095569610596</v>
+        <v>0.02800876025695803</v>
       </c>
     </row>
     <row r="622">
       <c r="A622" t="n">
-        <v>-0.6749772429466248</v>
+        <v>0.003404145901614891</v>
       </c>
     </row>
     <row r="623">
       <c r="A623" t="n">
-        <v>-0.6725407242774963</v>
+        <v>0.004044170277072795</v>
       </c>
     </row>
     <row r="624">
       <c r="A624" t="n">
-        <v>-0.6215556859970093</v>
+        <v>0.017436912839082</v>
       </c>
     </row>
     <row r="625">
       <c r="A625" t="n">
-        <v>-0.6351974010467529</v>
+        <v>0.01385350908128929</v>
       </c>
     </row>
     <row r="626">
       <c r="A626" t="n">
-        <v>-0.6589136719703674</v>
+        <v>0.007623722427733015</v>
       </c>
     </row>
     <row r="627">
       <c r="A627" t="n">
-        <v>-0.6599218249320984</v>
+        <v>0.007358900951963787</v>
       </c>
     </row>
     <row r="628">
       <c r="A628" t="n">
-        <v>-0.7023867964744568</v>
+        <v>-0.003795791698085943</v>
       </c>
     </row>
     <row r="629">
       <c r="A629" t="n">
-        <v>-0.7247246503829956</v>
+        <v>-0.009663495967307367</v>
       </c>
     </row>
     <row r="630">
       <c r="A630" t="n">
-        <v>-0.6825807690620422</v>
+        <v>0.001406852749316262</v>
       </c>
     </row>
     <row r="631">
       <c r="A631" t="n">
-        <v>-0.5291476249694824</v>
+        <v>0.04171064909063943</v>
       </c>
     </row>
     <row r="632">
       <c r="A632" t="n">
-        <v>-0.1411485522985458</v>
+        <v>0.1436301899958171</v>
       </c>
     </row>
     <row r="633">
       <c r="A633" t="n">
-        <v>0.5026487708091736</v>
+        <v>0.3127427787332905</v>
       </c>
     </row>
     <row r="634">
       <c r="A634" t="n">
-        <v>1.182638168334961</v>
+        <v>0.491362296401555</v>
       </c>
     </row>
     <row r="635">
       <c r="A635" t="n">
-        <v>1.848950624465942</v>
+        <v>0.6663891570607452</v>
       </c>
     </row>
     <row r="636">
       <c r="A636" t="n">
-        <v>2.357522010803223</v>
+        <v>0.7999806160716934</v>
       </c>
     </row>
     <row r="637">
       <c r="A637" t="n">
-        <v>2.669880390167236</v>
+        <v>0.8820308704795572</v>
       </c>
     </row>
     <row r="638">
       <c r="A638" t="n">
-        <v>2.740409374237061</v>
+        <v>0.90055741392571</v>
       </c>
     </row>
     <row r="639">
       <c r="A639" t="n">
-        <v>2.59882664680481</v>
+        <v>0.8633664833374917</v>
       </c>
     </row>
     <row r="640">
       <c r="A640" t="n">
-        <v>2.237433671951294</v>
+        <v>0.7684358284009398</v>
       </c>
     </row>
     <row r="641">
       <c r="A641" t="n">
-        <v>1.630570888519287</v>
+        <v>0.6090251992619248</v>
       </c>
     </row>
     <row r="642">
       <c r="A642" t="n">
-        <v>1.017900586128235</v>
+        <v>0.4480890518735246</v>
       </c>
     </row>
     <row r="643">
       <c r="A643" t="n">
-        <v>0.2273767292499542</v>
+        <v>0.240434358234717</v>
       </c>
     </row>
     <row r="644">
       <c r="A644" t="n">
-        <v>-0.3464599549770355</v>
+        <v>0.08969902011042798</v>
       </c>
     </row>
     <row r="645">
       <c r="A645" t="n">
-        <v>-0.5732390880584717</v>
+        <v>0.03012870987379351</v>
       </c>
     </row>
     <row r="646">
       <c r="A646" t="n">
-        <v>-0.6669090390205383</v>
+        <v>0.005523500554746985</v>
       </c>
     </row>
     <row r="647">
       <c r="A647" t="n">
-        <v>-0.7162191271781921</v>
+        <v>-0.007429266348601249</v>
       </c>
     </row>
     <row r="648">
       <c r="A648" t="n">
-        <v>-0.6792262196540833</v>
+        <v>0.002288025307924102</v>
       </c>
     </row>
     <row r="649">
       <c r="A649" t="n">
-        <v>-0.6977328658103943</v>
+        <v>-0.002573297857003859</v>
       </c>
     </row>
     <row r="650">
       <c r="A650" t="n">
-        <v>-0.692974865436554</v>
+        <v>-0.001323466999444717</v>
       </c>
     </row>
     <row r="651">
       <c r="A651" t="n">
-        <v>-0.6986163854598999</v>
+        <v>-0.002805380672146779</v>
       </c>
     </row>
     <row r="652">
       <c r="A652" t="n">
-        <v>-0.7458903193473816</v>
+        <v>-0.01522329086308205</v>
       </c>
     </row>
     <row r="653">
       <c r="A653" t="n">
-        <v>-0.746821403503418</v>
+        <v>-0.01546786791599628</v>
       </c>
     </row>
     <row r="654">
       <c r="A654" t="n">
-        <v>-0.6827860474586487</v>
+        <v>0.001352930249461176</v>
       </c>
     </row>
     <row r="655">
       <c r="A655" t="n">
-        <v>-0.5094518661499023</v>
+        <v>0.04688432819985003</v>
       </c>
     </row>
     <row r="656">
       <c r="A656" t="n">
-        <v>-0.08642318844795227</v>
+        <v>0.158005440743521</v>
       </c>
     </row>
     <row r="657">
       <c r="A657" t="n">
-        <v>0.6739365458488464</v>
+        <v>0.3577366269776615</v>
       </c>
     </row>
     <row r="658">
       <c r="A658" t="n">
-        <v>1.38805890083313</v>
+        <v>0.5453221850283377</v>
       </c>
     </row>
     <row r="659">
       <c r="A659" t="n">
-        <v>1.989657640457153</v>
+        <v>0.7033500558929033</v>
       </c>
     </row>
     <row r="660">
       <c r="A660" t="n">
-        <v>2.478555917739868</v>
+        <v>0.8317737854316751</v>
       </c>
     </row>
     <row r="661">
       <c r="A661" t="n">
-        <v>2.76288366317749</v>
+        <v>0.9064609569295912</v>
       </c>
     </row>
     <row r="662">
       <c r="A662" t="n">
-        <v>2.833343267440796</v>
+        <v>0.9249692756980925</v>
       </c>
     </row>
     <row r="663">
       <c r="A663" t="n">
-        <v>2.631247520446777</v>
+        <v>0.8718827937878946</v>
       </c>
     </row>
     <row r="664">
       <c r="A664" t="n">
-        <v>2.232139825820923</v>
+        <v>0.7670452416567088</v>
       </c>
     </row>
     <row r="665">
       <c r="A665" t="n">
-        <v>1.694324135780334</v>
+        <v>0.6257718931324303</v>
       </c>
     </row>
     <row r="666">
       <c r="A666" t="n">
-        <v>1.028810739517212</v>
+        <v>0.4509549294050224</v>
       </c>
     </row>
     <row r="667">
       <c r="A667" t="n">
-        <v>0.2937574982643127</v>
+        <v>0.2578712491435103</v>
       </c>
     </row>
     <row r="668">
       <c r="A668" t="n">
-        <v>-0.2800287306308746</v>
+        <v>0.1071491646185613</v>
       </c>
     </row>
     <row r="669">
       <c r="A669" t="n">
-        <v>-0.5380933284759521</v>
+        <v>0.03936079297326031</v>
       </c>
     </row>
     <row r="670">
       <c r="A670" t="n">
-        <v>-0.6303675174713135</v>
+        <v>0.01512222220796144</v>
       </c>
     </row>
     <row r="671">
       <c r="A671" t="n">
-        <v>-0.6818805336952209</v>
+        <v>0.001590790475302861</v>
       </c>
     </row>
     <row r="672">
       <c r="A672" t="n">
-        <v>-0.6354026198387146</v>
+        <v>0.01379960223837373</v>
       </c>
     </row>
     <row r="673">
       <c r="A673" t="n">
-        <v>-0.6540852189064026</v>
+        <v>0.008892059787855677</v>
       </c>
     </row>
     <row r="674">
       <c r="A674" t="n">
-        <v>-0.6662155389785767</v>
+        <v>0.005705669046562944</v>
       </c>
     </row>
     <row r="675">
       <c r="A675" t="n">
-        <v>-0.6591671705245972</v>
+        <v>0.007557133463771432</v>
       </c>
     </row>
     <row r="676">
       <c r="A676" t="n">
-        <v>-0.7136262059211731</v>
+        <v>-0.00674815816372995</v>
       </c>
     </row>
     <row r="677">
       <c r="A677" t="n">
-        <v>-0.7406834959983826</v>
+        <v>-0.01385556325061321</v>
       </c>
     </row>
     <row r="678">
       <c r="A678" t="n">
-        <v>-0.703967273235321</v>
+        <v>-0.004210951107539468</v>
       </c>
     </row>
     <row r="679">
       <c r="A679" t="n">
-        <v>-0.5278453826904297</v>
+        <v>0.0420527219062127</v>
       </c>
     </row>
     <row r="680">
       <c r="A680" t="n">
-        <v>-0.08288531750440598</v>
+        <v>0.1589347681768725</v>
       </c>
     </row>
     <row r="681">
       <c r="A681" t="n">
-        <v>0.6414690613746643</v>
+        <v>0.3492080728005203</v>
       </c>
     </row>
     <row r="682">
       <c r="A682" t="n">
-        <v>1.328941106796265</v>
+        <v>0.5297931313476496</v>
       </c>
     </row>
     <row r="683">
       <c r="A683" t="n">
-        <v>2.023967981338501</v>
+        <v>0.7123626913274546</v>
       </c>
     </row>
     <row r="684">
       <c r="A684" t="n">
-        <v>2.543233156204224</v>
+        <v>0.8487631931792869</v>
       </c>
     </row>
     <row r="685">
       <c r="A685" t="n">
-        <v>2.788930177688599</v>
+        <v>0.9133028516353645</v>
       </c>
     </row>
     <row r="686">
       <c r="A686" t="n">
-        <v>2.816984176635742</v>
+        <v>0.920672072065621</v>
       </c>
     </row>
     <row r="687">
       <c r="A687" t="n">
-        <v>2.660118818283081</v>
+        <v>0.8794667021734393</v>
       </c>
     </row>
     <row r="688">
       <c r="A688" t="n">
-        <v>2.302056550979614</v>
+        <v>0.7854109570196701</v>
       </c>
     </row>
     <row r="689">
       <c r="A689" t="n">
-        <v>1.808330893516541</v>
+        <v>0.655719171945688</v>
       </c>
     </row>
     <row r="690">
       <c r="A690" t="n">
-        <v>1.183892965316772</v>
+        <v>0.4916919062932361</v>
       </c>
     </row>
     <row r="691">
       <c r="A691" t="n">
-        <v>0.3788151443004608</v>
+        <v>0.2802141794366235</v>
       </c>
     </row>
     <row r="692">
       <c r="A692" t="n">
-        <v>-0.2765375673770905</v>
+        <v>0.1080662228826477</v>
       </c>
     </row>
     <row r="693">
       <c r="A693" t="n">
-        <v>-0.5586264133453369</v>
+        <v>0.03396716517706813</v>
       </c>
     </row>
     <row r="694">
       <c r="A694" t="n">
-        <v>-0.6652082204818726</v>
+        <v>0.0059702713251783</v>
       </c>
     </row>
     <row r="695">
       <c r="A695" t="n">
-        <v>-0.6705290079116821</v>
+        <v>0.004572607644264925</v>
       </c>
     </row>
     <row r="696">
       <c r="A696" t="n">
-        <v>-0.6266518235206604</v>
+        <v>0.01609826016338173</v>
       </c>
     </row>
     <row r="697">
       <c r="A697" t="n">
-        <v>-0.6481034755706787</v>
+        <v>0.01046334327158358</v>
       </c>
     </row>
     <row r="698">
       <c r="A698" t="n">
-        <v>-0.6609816551208496</v>
+        <v>0.007080504909593388</v>
       </c>
     </row>
     <row r="699">
       <c r="A699" t="n">
-        <v>-0.6513797640800476</v>
+        <v>0.009602728274622024</v>
       </c>
     </row>
     <row r="700">
       <c r="A700" t="n">
-        <v>-0.7058902382850647</v>
+        <v>-0.004716075291722244</v>
       </c>
     </row>
     <row r="701">
       <c r="A701" t="n">
-        <v>-0.7240446805953979</v>
+        <v>-0.00948488160077221</v>
       </c>
     </row>
     <row r="702">
       <c r="A702" t="n">
-        <v>-0.678318977355957</v>
+        <v>0.00252633958501311</v>
       </c>
     </row>
     <row r="703">
       <c r="A703" t="n">
-        <v>-0.5017711520195007</v>
+        <v>0.04890189708888279</v>
       </c>
     </row>
     <row r="704">
       <c r="A704" t="n">
-        <v>-0.1114414185285568</v>
+        <v>0.1514336556448544</v>
       </c>
     </row>
     <row r="705">
       <c r="A705" t="n">
-        <v>0.4850060045719147</v>
+        <v>0.3081083794219194</v>
       </c>
     </row>
     <row r="706">
       <c r="A706" t="n">
-        <v>1.073132634162903</v>
+        <v>0.462597398350219</v>
       </c>
     </row>
     <row r="707">
       <c r="A707" t="n">
-        <v>1.649432301521301</v>
+        <v>0.6139797125311319</v>
       </c>
     </row>
     <row r="708">
       <c r="A708" t="n">
-        <v>2.19442343711853</v>
+        <v>0.7571379060677674</v>
       </c>
     </row>
     <row r="709">
       <c r="A709" t="n">
-        <v>2.451730251312256</v>
+        <v>0.8247272232119338</v>
       </c>
     </row>
     <row r="710">
       <c r="A710" t="n">
-        <v>2.658419132232666</v>
+        <v>0.8790202288848596</v>
       </c>
     </row>
     <row r="711">
       <c r="A711" t="n">
-        <v>2.587152004241943</v>
+        <v>0.8602997898991582</v>
       </c>
     </row>
     <row r="712">
       <c r="A712" t="n">
-        <v>2.281514406204224</v>
+        <v>0.7800149493686643</v>
       </c>
     </row>
     <row r="713">
       <c r="A713" t="n">
-        <v>1.702426195144653</v>
+        <v>0.6279001409272342</v>
       </c>
     </row>
     <row r="714">
       <c r="A714" t="n">
-        <v>1.072606682777405</v>
+        <v>0.4624592415155148</v>
       </c>
     </row>
     <row r="715">
       <c r="A715" t="n">
-        <v>0.3898828327655792</v>
+        <v>0.2831214382593864</v>
       </c>
     </row>
     <row r="716">
       <c r="A716" t="n">
-        <v>-0.2253491878509521</v>
+        <v>0.1215123790939762</v>
       </c>
     </row>
     <row r="717">
       <c r="A717" t="n">
-        <v>-0.4864708781242371</v>
+        <v>0.05292097084695663</v>
       </c>
     </row>
     <row r="718">
       <c r="A718" t="n">
-        <v>-0.6044579148292542</v>
+        <v>0.02192815292355843</v>
       </c>
     </row>
     <row r="719">
       <c r="A719" t="n">
-        <v>-0.701944887638092</v>
+        <v>-0.003679711148165565</v>
       </c>
     </row>
     <row r="720">
       <c r="A720" t="n">
-        <v>-0.7188512086868286</v>
+        <v>-0.008120661142765495</v>
       </c>
     </row>
     <row r="721">
       <c r="A721" t="n">
-        <v>-0.7351690530776978</v>
+        <v>-0.01240703017305955</v>
       </c>
     </row>
     <row r="722">
       <c r="A722" t="n">
-        <v>-0.7113680839538574</v>
+        <v>-0.006154995008384206</v>
       </c>
     </row>
     <row r="723">
       <c r="A723" t="n">
-        <v>-0.7065902352333069</v>
+        <v>-0.004899950389950558</v>
       </c>
     </row>
     <row r="724">
       <c r="A724" t="n">
-        <v>-0.7431222796440125</v>
+        <v>-0.01449618258977453</v>
       </c>
     </row>
     <row r="725">
       <c r="A725" t="n">
-        <v>-0.7362813353538513</v>
+        <v>-0.01269920432224542</v>
       </c>
     </row>
     <row r="726">
       <c r="A726" t="n">
-        <v>-0.6730843782424927</v>
+        <v>0.003901363331318325</v>
       </c>
     </row>
     <row r="727">
       <c r="A727" t="n">
-        <v>-0.4786215424537659</v>
+        <v>0.05498283321801323</v>
       </c>
     </row>
     <row r="728">
       <c r="A728" t="n">
-        <v>-0.05652877315878868</v>
+        <v>0.1658581014752241</v>
       </c>
     </row>
     <row r="729">
       <c r="A729" t="n">
-        <v>0.6337913870811462</v>
+        <v>0.3471913024154052</v>
       </c>
     </row>
     <row r="730">
       <c r="A730" t="n">
-        <v>1.343826293945312</v>
+        <v>0.5337031701786066</v>
       </c>
     </row>
     <row r="731">
       <c r="A731" t="n">
-        <v>1.975619554519653</v>
+        <v>0.6996625334870166</v>
       </c>
     </row>
     <row r="732">
       <c r="A732" t="n">
-        <v>2.413509130477905</v>
+        <v>0.8146873046587724</v>
       </c>
     </row>
     <row r="733">
       <c r="A733" t="n">
-        <v>2.64186954498291</v>
+        <v>0.8746729856735445</v>
       </c>
     </row>
     <row r="734">
       <c r="A734" t="n">
-        <v>2.673452138900757</v>
+        <v>0.8829690969259327</v>
       </c>
     </row>
     <row r="735">
       <c r="A735" t="n">
-        <v>2.444934606552124</v>
+        <v>0.8229421442184726</v>
       </c>
     </row>
     <row r="736">
       <c r="A736" t="n">
-        <v>2.155709505081177</v>
+        <v>0.7469685359382989</v>
       </c>
     </row>
     <row r="737">
       <c r="A737" t="n">
-        <v>1.661170125007629</v>
+        <v>0.617063002325402</v>
       </c>
     </row>
     <row r="738">
       <c r="A738" t="n">
-        <v>0.973390519618988</v>
+        <v>0.4363971539701275</v>
       </c>
     </row>
     <row r="739">
       <c r="A739" t="n">
-        <v>0.2756326794624329</v>
+        <v>0.2531102243334231</v>
       </c>
     </row>
     <row r="740">
       <c r="A740" t="n">
-        <v>-0.2633422315120697</v>
+        <v>0.1115323718200528</v>
       </c>
     </row>
     <row r="741">
       <c r="A741" t="n">
-        <v>-0.5162532329559326</v>
+        <v>0.04509774614019077</v>
       </c>
     </row>
     <row r="742">
       <c r="A742" t="n">
-        <v>-0.6325559020042419</v>
+        <v>0.01454737767190448</v>
       </c>
     </row>
     <row r="743">
       <c r="A743" t="n">
-        <v>-0.6690526604652405</v>
+        <v>0.004960414380301842</v>
       </c>
     </row>
     <row r="744">
       <c r="A744" t="n">
-        <v>-0.678659200668335</v>
+        <v>0.002436969773987302</v>
       </c>
     </row>
     <row r="745">
       <c r="A745" t="n">
-        <v>-0.7208929061889648</v>
+        <v>-0.008656973950557839</v>
       </c>
     </row>
     <row r="746">
       <c r="A746" t="n">
-        <v>-0.7018283009529114</v>
+        <v>-0.003649086174380256</v>
       </c>
     </row>
     <row r="747">
       <c r="A747" t="n">
-        <v>-0.6982418298721313</v>
+        <v>-0.002706992463932634</v>
       </c>
     </row>
     <row r="748">
       <c r="A748" t="n">
-        <v>-0.7379226088523865</v>
+        <v>-0.01313033381005327</v>
       </c>
     </row>
     <row r="749">
       <c r="A749" t="n">
-        <v>-0.7285037636756897</v>
+        <v>-0.01065619290642272</v>
       </c>
     </row>
     <row r="750">
       <c r="A750" t="n">
-        <v>-0.668364405632019</v>
+        <v>0.005141205061436255</v>
       </c>
     </row>
     <row r="751">
       <c r="A751" t="n">
-        <v>-0.495646059513092</v>
+        <v>0.05051083551225979</v>
       </c>
     </row>
     <row r="752">
       <c r="A752" t="n">
-        <v>-0.076114721596241</v>
+        <v>0.1607132673414823</v>
       </c>
     </row>
     <row r="753">
       <c r="A753" t="n">
-        <v>0.6301446557044983</v>
+        <v>0.3462333795390594</v>
       </c>
     </row>
     <row r="754">
       <c r="A754" t="n">
-        <v>1.352486610412598</v>
+        <v>0.5359780608693578</v>
       </c>
     </row>
     <row r="755">
       <c r="A755" t="n">
-        <v>1.989310264587402</v>
+        <v>0.7032588072491299</v>
       </c>
     </row>
     <row r="756">
       <c r="A756" t="n">
-        <v>2.458646059036255</v>
+        <v>0.826543866595554</v>
       </c>
     </row>
     <row r="757">
       <c r="A757" t="n">
-        <v>2.717406272888184</v>
+        <v>0.8945149625540254</v>
       </c>
     </row>
     <row r="758">
       <c r="A758" t="n">
-        <v>2.76574182510376</v>
+        <v>0.9072117384955181</v>
       </c>
     </row>
     <row r="759">
       <c r="A759" t="n">
-        <v>2.597229242324829</v>
+        <v>0.8629468773572022</v>
       </c>
     </row>
     <row r="760">
       <c r="A760" t="n">
-        <v>2.227375984191895</v>
+        <v>0.7657938764190726</v>
       </c>
     </row>
     <row r="761">
       <c r="A761" t="n">
-        <v>1.690264701843262</v>
+        <v>0.62470556160655</v>
       </c>
     </row>
     <row r="762">
       <c r="A762" t="n">
-        <v>1.040935158729553</v>
+        <v>0.4541397701092983</v>
       </c>
     </row>
     <row r="763">
       <c r="A763" t="n">
-        <v>0.2874215543270111</v>
+        <v>0.256206924296429</v>
       </c>
     </row>
     <row r="764">
       <c r="A764" t="n">
-        <v>-0.3073931336402893</v>
+        <v>0.0999610871505795</v>
       </c>
     </row>
     <row r="765">
       <c r="A765" t="n">
-        <v>-0.5618029236793518</v>
+        <v>0.03313275989693512</v>
       </c>
     </row>
     <row r="766">
       <c r="A766" t="n">
-        <v>-0.6491183638572693</v>
+        <v>0.01019675256164371</v>
       </c>
     </row>
     <row r="767">
       <c r="A767" t="n">
-        <v>-0.6543780565261841</v>
+        <v>0.008815137243782467</v>
       </c>
     </row>
     <row r="768">
       <c r="A768" t="n">
-        <v>-0.6243945956230164</v>
+        <v>0.01669118846463402</v>
       </c>
     </row>
     <row r="769">
       <c r="A769" t="n">
-        <v>-0.6436565518379211</v>
+        <v>0.01163146056156322</v>
       </c>
     </row>
     <row r="770">
       <c r="A770" t="n">
-        <v>-0.6586560606956482</v>
+        <v>0.007691391720524493</v>
       </c>
     </row>
     <row r="771">
       <c r="A771" t="n">
-        <v>-0.6502455472946167</v>
+        <v>0.009900664177567103</v>
       </c>
     </row>
     <row r="772">
       <c r="A772" t="n">
-        <v>-0.7027933597564697</v>
+        <v>-0.003902587682845432</v>
       </c>
     </row>
     <row r="773">
       <c r="A773" t="n">
-        <v>-0.7319461703300476</v>
+        <v>-0.01156044379394647</v>
       </c>
     </row>
     <row r="774">
       <c r="A774" t="n">
-        <v>-0.6937743425369263</v>
+        <v>-0.001533473529803764</v>
       </c>
     </row>
     <row r="775">
       <c r="A775" t="n">
-        <v>-0.5300354361534119</v>
+        <v>0.04147743897584796</v>
       </c>
     </row>
     <row r="776">
       <c r="A776" t="n">
-        <v>-0.1129673272371292</v>
+        <v>0.1510328301635709</v>
       </c>
     </row>
     <row r="777">
       <c r="A777" t="n">
-        <v>0.6175405979156494</v>
+        <v>0.3429225474421196</v>
       </c>
     </row>
     <row r="778">
       <c r="A778" t="n">
-        <v>1.350563645362854</v>
+        <v>0.535472936685175</v>
       </c>
     </row>
     <row r="779">
       <c r="A779" t="n">
-        <v>2.005464553833008</v>
+        <v>0.7075022136372631</v>
       </c>
     </row>
     <row r="780">
       <c r="A780" t="n">
-        <v>2.512631177902222</v>
+        <v>0.8407246698965898</v>
       </c>
     </row>
     <row r="781">
       <c r="A781" t="n">
-        <v>2.740334510803223</v>
+        <v>0.9005377488096189</v>
       </c>
     </row>
     <row r="782">
       <c r="A782" t="n">
-        <v>2.802512407302856</v>
+        <v>0.9168706297674734</v>
       </c>
     </row>
     <row r="783">
       <c r="A783" t="n">
-        <v>2.607239246368408</v>
+        <v>0.8655763037874189</v>
       </c>
     </row>
     <row r="784">
       <c r="A784" t="n">
-        <v>2.191292762756348</v>
+        <v>0.7563155409741584</v>
       </c>
     </row>
     <row r="785">
       <c r="A785" t="n">
-        <v>1.68813169002533</v>
+        <v>0.6241452623673471</v>
       </c>
     </row>
     <row r="786">
       <c r="A786" t="n">
-        <v>0.9881114363670349</v>
+        <v>0.4402640422756485</v>
       </c>
     </row>
     <row r="787">
       <c r="A787" t="n">
-        <v>0.2102077901363373</v>
+        <v>0.2359244237644023</v>
       </c>
     </row>
     <row r="788">
       <c r="A788" t="n">
-        <v>-0.3117276430130005</v>
+        <v>0.09882249884861574</v>
       </c>
     </row>
     <row r="789">
       <c r="A789" t="n">
-        <v>-0.5231053829193115</v>
+        <v>0.04329782436802382</v>
       </c>
     </row>
     <row r="790">
       <c r="A790" t="n">
-        <v>-0.6157985925674438</v>
+        <v>0.01894918531759682</v>
       </c>
     </row>
     <row r="791">
       <c r="A791" t="n">
-        <v>-0.6259163022041321</v>
+        <v>0.01629146679758964</v>
       </c>
     </row>
     <row r="792">
       <c r="A792" t="n">
-        <v>-0.6685814261436462</v>
+        <v>0.00508419814448724</v>
       </c>
     </row>
     <row r="793">
       <c r="A793" t="n">
-        <v>-0.692237913608551</v>
+        <v>-0.001129884598687292</v>
       </c>
     </row>
     <row r="794">
       <c r="A794" t="n">
-        <v>-0.682252824306488</v>
+        <v>0.001492997230792104</v>
       </c>
     </row>
     <row r="795">
       <c r="A795" t="n">
-        <v>-0.6789957284927368</v>
+        <v>0.002348570693214369</v>
       </c>
     </row>
     <row r="796">
       <c r="A796" t="n">
-        <v>-0.7195653319358826</v>
+        <v>-0.008308246935670255</v>
       </c>
     </row>
     <row r="797">
       <c r="A797" t="n">
-        <v>-0.7270165681838989</v>
+        <v>-0.01026553660738533</v>
       </c>
     </row>
     <row r="798">
       <c r="A798" t="n">
-        <v>-0.6881569027900696</v>
+        <v>-5.788526068514765e-05</v>
       </c>
     </row>
     <row r="799">
       <c r="A799" t="n">
-        <v>-0.5323308706283569</v>
+        <v>0.04087447457633578</v>
       </c>
     </row>
     <row r="800">
       <c r="A800" t="n">
-        <v>-0.1505253911018372</v>
+        <v>0.1411670833203437</v>
       </c>
     </row>
     <row r="801">
       <c r="A801" t="n">
-        <v>0.5314939022064209</v>
+        <v>0.3203198137223671</v>
       </c>
     </row>
     <row r="802">
       <c r="A802" t="n">
-        <v>1.226097464561462</v>
+        <v>0.5027781781173954</v>
       </c>
     </row>
     <row r="803">
       <c r="A803" t="n">
-        <v>1.829156994819641</v>
+        <v>0.6611897692567721</v>
       </c>
     </row>
     <row r="804">
       <c r="A804" t="n">
-        <v>2.349200963973999</v>
+        <v>0.7977948446809349</v>
       </c>
     </row>
     <row r="805">
       <c r="A805" t="n">
-        <v>2.659490346908569</v>
+        <v>0.8793016154026865</v>
       </c>
     </row>
     <row r="806">
       <c r="A806" t="n">
-        <v>2.682436227798462</v>
+        <v>0.8853290361123907</v>
       </c>
     </row>
     <row r="807">
       <c r="A807" t="n">
-        <v>2.54602313041687</v>
+        <v>0.8494960632063535</v>
       </c>
     </row>
     <row r="808">
       <c r="A808" t="n">
-        <v>2.169985055923462</v>
+        <v>0.7507184355914049</v>
       </c>
     </row>
     <row r="809">
       <c r="A809" t="n">
-        <v>1.705620646476746</v>
+        <v>0.6287392589461758</v>
       </c>
     </row>
     <row r="810">
       <c r="A810" t="n">
-        <v>1.033079981803894</v>
+        <v>0.4520763733581646</v>
       </c>
     </row>
     <row r="811">
       <c r="A811" t="n">
-        <v>0.2288960516452789</v>
+        <v>0.2408334536241789</v>
       </c>
     </row>
     <row r="812">
       <c r="A812" t="n">
-        <v>-0.3440741002559662</v>
+        <v>0.0903257360872573</v>
       </c>
     </row>
     <row r="813">
       <c r="A813" t="n">
-        <v>-0.5662859678268433</v>
+        <v>0.03195515450158026</v>
       </c>
     </row>
     <row r="814">
       <c r="A814" t="n">
-        <v>-0.6474441885948181</v>
+        <v>0.01063652468009035</v>
       </c>
     </row>
     <row r="815">
       <c r="A815" t="n">
-        <v>-0.6555107831954956</v>
+        <v>0.008517592764326481</v>
       </c>
     </row>
     <row r="816">
       <c r="A816" t="n">
-        <v>-0.621083676815033</v>
+        <v>0.01756090014348172</v>
       </c>
     </row>
     <row r="817">
       <c r="A817" t="n">
-        <v>-0.6452129483222961</v>
+        <v>0.01122262655569317</v>
       </c>
     </row>
     <row r="818">
       <c r="A818" t="n">
-        <v>-0.6690025925636292</v>
+        <v>0.004973566209534791</v>
       </c>
     </row>
     <row r="819">
       <c r="A819" t="n">
-        <v>-0.6630567908287048</v>
+        <v>0.006535408558706185</v>
       </c>
     </row>
     <row r="820">
       <c r="A820" t="n">
-        <v>-0.7005950212478638</v>
+        <v>-0.003325128437881436</v>
       </c>
     </row>
     <row r="821">
       <c r="A821" t="n">
-        <v>-0.7205793857574463</v>
+        <v>-0.00857461844845625</v>
       </c>
     </row>
     <row r="822">
       <c r="A822" t="n">
-        <v>-0.6868375539779663</v>
+        <v>0.0002886810965427311</v>
       </c>
     </row>
     <row r="823">
       <c r="A823" t="n">
-        <v>-0.5415555238723755</v>
+        <v>0.03845134398180161</v>
       </c>
     </row>
     <row r="824">
       <c r="A824" t="n">
-        <v>-0.1613496243953705</v>
+        <v>0.138323775267226</v>
       </c>
     </row>
     <row r="825">
       <c r="A825" t="n">
-        <v>0.5660501718521118</v>
+        <v>0.3293970496895554</v>
       </c>
     </row>
     <row r="826">
       <c r="A826" t="n">
-        <v>1.297906875610352</v>
+        <v>0.5216410639392413</v>
       </c>
     </row>
     <row r="827">
       <c r="A827" t="n">
-        <v>1.978451728820801</v>
+        <v>0.7004064886272938</v>
       </c>
     </row>
     <row r="828">
       <c r="A828" t="n">
-        <v>2.460654973983765</v>
+        <v>0.8270715680865868</v>
       </c>
     </row>
     <row r="829">
       <c r="A829" t="n">
-        <v>2.679081201553345</v>
+        <v>0.8844477382982663</v>
       </c>
     </row>
     <row r="830">
       <c r="A830" t="n">
-        <v>2.733449459075928</v>
+        <v>0.898729184406813</v>
       </c>
     </row>
     <row r="831">
       <c r="A831" t="n">
-        <v>2.514811515808105</v>
+        <v>0.8412974007458056</v>
       </c>
     </row>
     <row r="832">
       <c r="A832" t="n">
-        <v>2.14823579788208</v>
+        <v>0.7450053436003685</v>
       </c>
     </row>
     <row r="833">
       <c r="A833" t="n">
-        <v>1.657023549079895</v>
+        <v>0.6159737803538805</v>
       </c>
     </row>
     <row r="834">
       <c r="A834" t="n">
-        <v>0.9949801564216614</v>
+        <v>0.442068316677014</v>
       </c>
     </row>
     <row r="835">
       <c r="A835" t="n">
-        <v>0.2118120491504669</v>
+        <v>0.2363458302927415</v>
       </c>
     </row>
     <row r="836">
       <c r="A836" t="n">
-        <v>-0.3560510873794556</v>
+        <v>0.08717962282299047</v>
       </c>
     </row>
     <row r="837">
       <c r="A837" t="n">
-        <v>-0.5748266577720642</v>
+        <v>0.02971168728853196</v>
       </c>
     </row>
     <row r="838">
       <c r="A838" t="n">
-        <v>-0.6586534976959229</v>
+        <v>0.007692064968925688</v>
       </c>
     </row>
     <row r="839">
       <c r="A839" t="n">
-        <v>-0.6580333113670349</v>
+        <v>0.007854975425079097</v>
       </c>
     </row>
     <row r="840">
       <c r="A840" t="n">
-        <v>-0.6318514347076416</v>
+        <v>0.01473242704060004</v>
       </c>
     </row>
     <row r="841">
       <c r="A841" t="n">
-        <v>-0.6642414927482605</v>
+        <v>0.006224211227951221</v>
       </c>
     </row>
     <row r="842">
       <c r="A842" t="n">
-        <v>-0.6694526076316833</v>
+        <v>0.004855356315833864</v>
       </c>
     </row>
     <row r="843">
       <c r="A843" t="n">
-        <v>-0.6590418815612793</v>
+        <v>0.007590044350732933</v>
       </c>
     </row>
     <row r="844">
       <c r="A844" t="n">
-        <v>-0.7004122138023376</v>
+        <v>-0.003277108604241574</v>
       </c>
     </row>
     <row r="845">
       <c r="A845" t="n">
-        <v>-0.724176287651062</v>
+        <v>-0.009519452123327388</v>
       </c>
     </row>
     <row r="846">
       <c r="A846" t="n">
-        <v>-0.6995822191238403</v>
+        <v>-0.003059085720826277</v>
       </c>
     </row>
     <row r="847">
       <c r="A847" t="n">
-        <v>-0.5569926500320435</v>
+        <v>0.03439632189049105</v>
       </c>
     </row>
     <row r="848">
       <c r="A848" t="n">
-        <v>-0.1745488941669464</v>
+        <v>0.1348565929718097</v>
       </c>
     </row>
     <row r="849">
       <c r="A849" t="n">
-        <v>0.5206461548805237</v>
+        <v>0.3174703290065918</v>
       </c>
     </row>
     <row r="850">
       <c r="A850" t="n">
-        <v>1.27398693561554</v>
+        <v>0.5153577775231981</v>
       </c>
     </row>
     <row r="851">
       <c r="A851" t="n">
-        <v>1.953931331634521</v>
+        <v>0.6939654742020926</v>
       </c>
     </row>
     <row r="852">
       <c r="A852" t="n">
-        <v>2.444344758987427</v>
+        <v>0.8227872031445567</v>
       </c>
     </row>
     <row r="853">
       <c r="A853" t="n">
-        <v>2.660455703735352</v>
+        <v>0.8795551951958496</v>
       </c>
     </row>
     <row r="854">
       <c r="A854" t="n">
-        <v>2.740922212600708</v>
+        <v>0.9006921262337104</v>
       </c>
     </row>
     <row r="855">
       <c r="A855" t="n">
-        <v>2.533939123153687</v>
+        <v>0.8463218379071014</v>
       </c>
     </row>
     <row r="856">
       <c r="A856" t="n">
-        <v>2.136938810348511</v>
+        <v>0.7420378525311067</v>
       </c>
     </row>
     <row r="857">
       <c r="A857" t="n">
-        <v>1.634957551956177</v>
+        <v>0.6101774873860062</v>
       </c>
     </row>
     <row r="858">
       <c r="A858" t="n">
-        <v>0.9505730271339417</v>
+        <v>0.4304034583082422</v>
       </c>
     </row>
     <row r="859">
       <c r="A859" t="n">
-        <v>0.1587288975715637</v>
+        <v>0.2224019556296436</v>
       </c>
     </row>
     <row r="860">
       <c r="A860" t="n">
-        <v>-0.3656642436981201</v>
+        <v>0.08465444029638441</v>
       </c>
     </row>
     <row r="861">
       <c r="A861" t="n">
-        <v>-0.5706129670143127</v>
+        <v>0.03081853897400144</v>
       </c>
     </row>
     <row r="862">
       <c r="A862" t="n">
-        <v>-0.652698278427124</v>
+        <v>0.009256381114548046</v>
       </c>
     </row>
     <row r="863">
       <c r="A863" t="n">
-        <v>-0.6582756042480469</v>
+        <v>0.00779132996575535</v>
       </c>
     </row>
     <row r="864">
       <c r="A864" t="n">
-        <v>-0.5844053626060486</v>
+        <v>0.02719555447299335</v>
       </c>
     </row>
     <row r="865">
       <c r="A865" t="n">
-        <v>-0.6751960515975952</v>
+        <v>0.003346669276478975</v>
       </c>
     </row>
     <row r="866">
       <c r="A866" t="n">
-        <v>-0.6809695363044739</v>
+        <v>0.00183009113958435</v>
       </c>
     </row>
     <row r="867">
       <c r="A867" t="n">
-        <v>-0.662453830242157</v>
+        <v>0.006693794159325889</v>
       </c>
     </row>
     <row r="868">
       <c r="A868" t="n">
-        <v>-0.7083153128623962</v>
+        <v>-0.005353093534784054</v>
       </c>
     </row>
     <row r="869">
       <c r="A869" t="n">
-        <v>-0.7267738580703735</v>
+        <v>-0.01020178154948465</v>
       </c>
     </row>
     <row r="870">
       <c r="A870" t="n">
-        <v>-0.675193727016449</v>
+        <v>0.003347279897121941</v>
       </c>
     </row>
     <row r="871">
       <c r="A871" t="n">
-        <v>-0.5482538342475891</v>
+        <v>0.03669183277064686</v>
       </c>
     </row>
     <row r="872">
       <c r="A872" t="n">
-        <v>-0.1927298009395599</v>
+        <v>0.1300808349815938</v>
       </c>
     </row>
     <row r="873">
       <c r="A873" t="n">
-        <v>0.4657270014286041</v>
+        <v>0.3030441736341336</v>
       </c>
     </row>
     <row r="874">
       <c r="A874" t="n">
-        <v>1.197034597396851</v>
+        <v>0.4951439483280949</v>
       </c>
     </row>
     <row r="875">
       <c r="A875" t="n">
-        <v>1.85483729839325</v>
+        <v>0.66793546772587</v>
       </c>
     </row>
     <row r="876">
       <c r="A876" t="n">
-        <v>2.316165685653687</v>
+        <v>0.7891171424975163</v>
       </c>
     </row>
     <row r="877">
       <c r="A877" t="n">
-        <v>2.570045948028564</v>
+        <v>0.8558063735000825</v>
       </c>
     </row>
     <row r="878">
       <c r="A878" t="n">
-        <v>2.638891220092773</v>
+        <v>0.8738906397174586</v>
       </c>
     </row>
     <row r="879">
       <c r="A879" t="n">
-        <v>2.464231729507446</v>
+        <v>0.8280111097158855</v>
       </c>
     </row>
     <row r="880">
       <c r="A880" t="n">
-        <v>2.105108976364136</v>
+        <v>0.7336767962934108</v>
       </c>
     </row>
     <row r="881">
       <c r="A881" t="n">
-        <v>1.45689070224762</v>
+        <v>0.5634029127773725</v>
       </c>
     </row>
     <row r="882">
       <c r="A882" t="n">
-        <v>0.6923544406890869</v>
+        <v>0.3625746369595801</v>
       </c>
     </row>
     <row r="883">
       <c r="A883" t="n">
-        <v>0.01897741854190826</v>
+        <v>0.1856920571098553</v>
       </c>
     </row>
     <row r="884">
       <c r="A884" t="n">
-        <v>-0.3652883768081665</v>
+        <v>0.08475317295726895</v>
       </c>
     </row>
     <row r="885">
       <c r="A885" t="n">
-        <v>-0.5287553668022156</v>
+        <v>0.04181368740990379</v>
       </c>
     </row>
     <row r="886">
       <c r="A886" t="n">
-        <v>-0.6125129461288452</v>
+        <v>0.01981225845406978</v>
       </c>
     </row>
     <row r="887">
       <c r="A887" t="n">
-        <v>-0.7086806893348694</v>
+        <v>-0.005449070574305465</v>
       </c>
     </row>
     <row r="888">
       <c r="A888" t="n">
-        <v>-0.7157027721405029</v>
+        <v>-0.007293630281166641</v>
       </c>
     </row>
     <row r="889">
       <c r="A889" t="n">
-        <v>-0.7375823259353638</v>
+        <v>-0.01304094834208785</v>
       </c>
     </row>
     <row r="890">
       <c r="A890" t="n">
-        <v>-0.7181718349456787</v>
+        <v>-0.007942203345625981</v>
       </c>
     </row>
     <row r="891">
       <c r="A891" t="n">
-        <v>-0.6952912211418152</v>
+        <v>-0.001931926984743537</v>
       </c>
     </row>
     <row r="892">
       <c r="A892" t="n">
-        <v>-0.7395528554916382</v>
+        <v>-0.01355856676404193</v>
       </c>
     </row>
     <row r="893">
       <c r="A893" t="n">
-        <v>-0.7534809708595276</v>
+        <v>-0.01721720211643507</v>
       </c>
     </row>
     <row r="894">
       <c r="A894" t="n">
-        <v>-0.709476113319397</v>
+        <v>-0.005658012432774223</v>
       </c>
     </row>
     <row r="895">
       <c r="A895" t="n">
-        <v>-0.5762165784835815</v>
+        <v>0.02934658311486146</v>
       </c>
     </row>
     <row r="896">
       <c r="A896" t="n">
-        <v>-0.2412507236003876</v>
+        <v>0.1173353659580602</v>
       </c>
     </row>
     <row r="897">
       <c r="A897" t="n">
-        <v>0.315777599811554</v>
+        <v>0.2636554862679211</v>
       </c>
     </row>
     <row r="898">
       <c r="A898" t="n">
-        <v>0.9451500177383423</v>
+        <v>0.4289789429759783</v>
       </c>
     </row>
     <row r="899">
       <c r="A899" t="n">
-        <v>1.567696571350098</v>
+        <v>0.5925093826222158</v>
       </c>
     </row>
     <row r="900">
       <c r="A900" t="n">
-        <v>2.164451837539673</v>
+        <v>0.7492649705778889</v>
       </c>
     </row>
     <row r="901">
       <c r="A901" t="n">
-        <v>2.501891613006592</v>
+        <v>0.8379036025261213</v>
       </c>
     </row>
     <row r="902">
       <c r="A902" t="n">
-        <v>2.627627611160278</v>
+        <v>0.8709319165343521</v>
       </c>
     </row>
     <row r="903">
       <c r="A903" t="n">
-        <v>2.399675369262695</v>
+        <v>0.8110534542417076</v>
       </c>
     </row>
     <row r="904">
       <c r="A904" t="n">
-        <v>2.005877733230591</v>
+        <v>0.7076107475423141</v>
       </c>
     </row>
     <row r="905">
       <c r="A905" t="n">
-        <v>1.333795070648193</v>
+        <v>0.5310681698779053</v>
       </c>
     </row>
     <row r="906">
       <c r="A906" t="n">
-        <v>0.6435518264770508</v>
+        <v>0.3497551732396715</v>
       </c>
     </row>
     <row r="907">
       <c r="A907" t="n">
-        <v>-0.01649149879813194</v>
+        <v>0.1763750869768713</v>
       </c>
     </row>
     <row r="908">
       <c r="A908" t="n">
-        <v>-0.3784142136573792</v>
+        <v>0.08130528001139432</v>
       </c>
     </row>
     <row r="909">
       <c r="A909" t="n">
-        <v>-0.5314230918884277</v>
+        <v>0.04111292976588088</v>
       </c>
     </row>
     <row r="910">
       <c r="A910" t="n">
-        <v>-0.6581711769104004</v>
+        <v>0.007818760923869794</v>
       </c>
     </row>
     <row r="911">
       <c r="A911" t="n">
-        <v>-0.6825721859931946</v>
+        <v>0.001409107348613353</v>
       </c>
     </row>
     <row r="912">
       <c r="A912" t="n">
-        <v>-0.695106029510498</v>
+        <v>-0.001883280873521159</v>
       </c>
     </row>
     <row r="913">
       <c r="A913" t="n">
-        <v>-0.7414618134498596</v>
+        <v>-0.01406001156742739</v>
       </c>
     </row>
     <row r="914">
       <c r="A914" t="n">
-        <v>-0.7180651426315308</v>
+        <v>-0.00791417742380815</v>
       </c>
     </row>
     <row r="915">
       <c r="A915" t="n">
-        <v>-0.696384072303772</v>
+        <v>-0.002218996971631859</v>
       </c>
     </row>
     <row r="916">
       <c r="A916" t="n">
-        <v>-0.7319653034210205</v>
+        <v>-0.0115654696715462</v>
       </c>
     </row>
     <row r="917">
       <c r="A917" t="n">
-        <v>-0.7368499040603638</v>
+        <v>-0.01284855586873723</v>
       </c>
     </row>
     <row r="918">
       <c r="A918" t="n">
-        <v>-0.6979751586914062</v>
+        <v>-0.002636943316327606</v>
       </c>
     </row>
     <row r="919">
       <c r="A919" t="n">
-        <v>-0.563195526599884</v>
+        <v>0.03276695116098427</v>
       </c>
     </row>
     <row r="920">
       <c r="A920" t="n">
-        <v>-0.2361237704753876</v>
+        <v>0.1186821132715145</v>
       </c>
     </row>
     <row r="921">
       <c r="A921" t="n">
-        <v>0.349559098482132</v>
+        <v>0.2725292055061993</v>
       </c>
     </row>
     <row r="922">
       <c r="A922" t="n">
-        <v>1.056578397750854</v>
+        <v>0.4582489338976179</v>
       </c>
     </row>
     <row r="923">
       <c r="A923" t="n">
-        <v>1.683151364326477</v>
+        <v>0.6228370311252178</v>
       </c>
     </row>
     <row r="924">
       <c r="A924" t="n">
-        <v>2.215815305709839</v>
+        <v>0.7627571190491838</v>
       </c>
     </row>
     <row r="925">
       <c r="A925" t="n">
-        <v>2.584357500076294</v>
+        <v>0.8595657299446848</v>
       </c>
     </row>
     <row r="926">
       <c r="A926" t="n">
-        <v>2.658190965652466</v>
+        <v>0.8789602941202124</v>
       </c>
     </row>
     <row r="927">
       <c r="A927" t="n">
-        <v>2.321773767471313</v>
+        <v>0.7905902726271234</v>
       </c>
     </row>
     <row r="928">
       <c r="A928" t="n">
-        <v>1.875810861587524</v>
+        <v>0.673444800305433</v>
       </c>
     </row>
     <row r="929">
       <c r="A929" t="n">
-        <v>1.373508214950562</v>
+        <v>0.5415000129422086</v>
       </c>
     </row>
     <row r="930">
       <c r="A930" t="n">
-        <v>0.6914841532707214</v>
+        <v>0.3623460299850202</v>
       </c>
     </row>
     <row r="931">
       <c r="A931" t="n">
-        <v>-0.01610853150486946</v>
+        <v>0.1764756847706813</v>
       </c>
     </row>
     <row r="932">
       <c r="A932" t="n">
-        <v>-0.3832719922065735</v>
+        <v>0.08002923943700664</v>
       </c>
     </row>
     <row r="933">
       <c r="A933" t="n">
-        <v>-0.5810106992721558</v>
+        <v>0.02808726415192711</v>
       </c>
     </row>
     <row r="934">
       <c r="A934" t="n">
-        <v>-0.7153277993202209</v>
+        <v>-0.007195132474375587</v>
       </c>
     </row>
     <row r="935">
       <c r="A935" t="n">
-        <v>-0.7313857674598694</v>
+        <v>-0.01141323724817478</v>
       </c>
     </row>
     <row r="936">
       <c r="A936" t="n">
-        <v>-0.7145323753356934</v>
+        <v>-0.006986190615906829</v>
       </c>
     </row>
     <row r="937">
       <c r="A937" t="n">
-        <v>-0.7306643128395081</v>
+        <v>-0.01122372565170374</v>
       </c>
     </row>
     <row r="938">
       <c r="A938" t="n">
-        <v>-0.7123355269432068</v>
+        <v>-0.006409122794431898</v>
       </c>
     </row>
     <row r="939">
       <c r="A939" t="n">
-        <v>-0.7114319205284119</v>
+        <v>-0.006171763590656215</v>
       </c>
     </row>
     <row r="940">
       <c r="A940" t="n">
-        <v>-0.751028299331665</v>
+        <v>-0.01657293471035556</v>
       </c>
     </row>
     <row r="941">
       <c r="A941" t="n">
-        <v>-0.7532280087471008</v>
+        <v>-0.01715075406492952</v>
       </c>
     </row>
     <row r="942">
       <c r="A942" t="n">
-        <v>-0.6846388578414917</v>
+        <v>0.0008662342831441128</v>
       </c>
     </row>
     <row r="943">
       <c r="A943" t="n">
-        <v>-0.4936141669750214</v>
+        <v>0.05104457275349403</v>
       </c>
     </row>
     <row r="944">
       <c r="A944" t="n">
-        <v>-0.1116394847631454</v>
+        <v>0.1513816276346865</v>
       </c>
     </row>
     <row r="945">
       <c r="A945" t="n">
-        <v>0.4736050665378571</v>
+        <v>0.3051135826500596</v>
       </c>
     </row>
     <row r="946">
       <c r="A946" t="n">
-        <v>0.9534937739372253</v>
+        <v>0.4311706796607103</v>
       </c>
     </row>
     <row r="947">
       <c r="A947" t="n">
-        <v>1.599455833435059</v>
+        <v>0.600851901043469</v>
       </c>
     </row>
     <row r="948">
       <c r="A948" t="n">
-        <v>2.026889324188232</v>
+        <v>0.7131300692493183</v>
       </c>
     </row>
     <row r="949">
       <c r="A949" t="n">
-        <v>2.11726713180542</v>
+        <v>0.7368704988254795</v>
       </c>
     </row>
     <row r="950">
       <c r="A950" t="n">
-        <v>2.044440984725952</v>
+        <v>0.7177405369285672</v>
       </c>
     </row>
     <row r="951">
       <c r="A951" t="n">
-        <v>1.898919701576233</v>
+        <v>0.6795150270879023</v>
       </c>
     </row>
     <row r="952">
       <c r="A952" t="n">
-        <v>1.307683825492859</v>
+        <v>0.5242092717357666</v>
       </c>
     </row>
     <row r="953">
       <c r="A953" t="n">
-        <v>0.7501914501190186</v>
+        <v>0.3777672543229376</v>
       </c>
     </row>
     <row r="954">
       <c r="A954" t="n">
-        <v>0.1240948364138603</v>
+        <v>0.213304285399208</v>
       </c>
     </row>
     <row r="955">
       <c r="A955" t="n">
-        <v>-0.3696617782115936</v>
+        <v>0.0836043685022403</v>
       </c>
     </row>
     <row r="956">
       <c r="A956" t="n">
-        <v>-0.6013551950454712</v>
+        <v>0.0227431749125124</v>
       </c>
     </row>
     <row r="957">
       <c r="A957" t="n">
-        <v>-0.7436225414276123</v>
+        <v>-0.01462759128352711</v>
       </c>
     </row>
     <row r="958">
       <c r="A958" t="n">
-        <v>-0.7940011620521545</v>
+        <v>-0.02786104014242194</v>
       </c>
     </row>
     <row r="959">
       <c r="A959" t="n">
-        <v>-0.7986655235290527</v>
+        <v>-0.02908627394792757</v>
       </c>
     </row>
     <row r="960">
       <c r="A960" t="n">
-        <v>-0.7631056904792786</v>
+        <v>-0.01974542208931634</v>
       </c>
     </row>
     <row r="961">
       <c r="A961" t="n">
-        <v>-0.7780487537384033</v>
+        <v>-0.0236706638085889</v>
       </c>
     </row>
     <row r="962">
       <c r="A962" t="n">
-        <v>-0.7577664256095886</v>
+        <v>-0.01834290475713843</v>
       </c>
     </row>
     <row r="963">
       <c r="A963" t="n">
-        <v>-0.706162691116333</v>
+        <v>-0.004787643162464883</v>
       </c>
     </row>
     <row r="964">
       <c r="A964" t="n">
-        <v>-0.7360707521438599</v>
+        <v>-0.01264388835476921</v>
       </c>
     </row>
     <row r="965">
       <c r="A965" t="n">
-        <v>-0.78062504529953</v>
+        <v>-0.02434740370732213</v>
       </c>
     </row>
     <row r="966">
       <c r="A966" t="n">
-        <v>-0.7731951475143433</v>
+        <v>-0.02239571921997063</v>
       </c>
     </row>
     <row r="967">
       <c r="A967" t="n">
-        <v>-0.60810786485672</v>
+        <v>0.02096938457247616</v>
       </c>
     </row>
     <row r="968">
       <c r="A968" t="n">
-        <v>-0.2006028890609741</v>
+        <v>0.1280127333201213</v>
       </c>
     </row>
     <row r="969">
       <c r="A969" t="n">
-        <v>0.4086274206638336</v>
+        <v>0.28804526392705</v>
       </c>
     </row>
     <row r="970">
       <c r="A970" t="n">
-        <v>1.121066093444824</v>
+        <v>0.4751885525774193</v>
       </c>
     </row>
     <row r="971">
       <c r="A971" t="n">
-        <v>1.843319177627563</v>
+        <v>0.6649098894108292</v>
       </c>
     </row>
     <row r="972">
       <c r="A972" t="n">
-        <v>2.318361043930054</v>
+        <v>0.7896938188955021</v>
       </c>
     </row>
     <row r="973">
       <c r="A973" t="n">
-        <v>2.578703880310059</v>
+        <v>0.8580806379132513</v>
       </c>
     </row>
     <row r="974">
       <c r="A974" t="n">
-        <v>2.573076009750366</v>
+        <v>0.8566023096797093</v>
       </c>
     </row>
     <row r="975">
       <c r="A975" t="n">
-        <v>2.441781282424927</v>
+        <v>0.8221138294878296</v>
       </c>
     </row>
     <row r="976">
       <c r="A976" t="n">
-        <v>2.016536951065063</v>
+        <v>0.7104107093582515</v>
       </c>
     </row>
     <row r="977">
       <c r="A977" t="n">
-        <v>1.510987281799316</v>
+        <v>0.5776129945553909</v>
       </c>
     </row>
     <row r="978">
       <c r="A978" t="n">
-        <v>0.7646396160125732</v>
+        <v>0.3815624964730182</v>
       </c>
     </row>
     <row r="979">
       <c r="A979" t="n">
-        <v>0.01327633112668991</v>
+        <v>0.1841944962831774</v>
       </c>
     </row>
     <row r="980">
       <c r="A980" t="n">
-        <v>-0.4426678717136383</v>
+        <v>0.06442713830478725</v>
       </c>
     </row>
     <row r="981">
       <c r="A981" t="n">
-        <v>-0.6127310395240784</v>
+        <v>0.01975496971220861</v>
       </c>
     </row>
     <row r="982">
       <c r="A982" t="n">
-        <v>-0.680488646030426</v>
+        <v>0.001956411327978941</v>
       </c>
     </row>
     <row r="983">
       <c r="A983" t="n">
-        <v>-0.6902984976768494</v>
+        <v>-0.0006204390991851327</v>
       </c>
     </row>
     <row r="984">
       <c r="A984" t="n">
-        <v>-0.6550465226173401</v>
+        <v>0.008639544666582982</v>
       </c>
     </row>
     <row r="985">
       <c r="A985" t="n">
-        <v>-0.6730236411094666</v>
+        <v>0.003917317752733074</v>
       </c>
     </row>
     <row r="986">
       <c r="A986" t="n">
-        <v>-0.6889386177062988</v>
+        <v>-0.000263226023054397</v>
       </c>
     </row>
     <row r="987">
       <c r="A987" t="n">
-        <v>-0.6568813920021057</v>
+        <v>0.008157561439074396</v>
       </c>
     </row>
     <row r="988">
       <c r="A988" t="n">
-        <v>-0.6833294630050659</v>
+        <v>0.001210185931464935</v>
       </c>
     </row>
     <row r="989">
       <c r="A989" t="n">
-        <v>-0.7292358875274658</v>
+        <v>-0.01084850709507551</v>
       </c>
     </row>
     <row r="990">
       <c r="A990" t="n">
-        <v>-0.7255843281745911</v>
+        <v>-0.009889316006625071</v>
       </c>
     </row>
     <row r="991">
       <c r="A991" t="n">
-        <v>-0.5882022976875305</v>
+        <v>0.02619817610894865</v>
       </c>
     </row>
     <row r="992">
       <c r="A992" t="n">
-        <v>-0.2181593179702759</v>
+        <v>0.1234010130857073</v>
       </c>
     </row>
     <row r="993">
       <c r="A993" t="n">
-        <v>0.3815820813179016</v>
+        <v>0.2809409980565492</v>
       </c>
     </row>
     <row r="994">
       <c r="A994" t="n">
-        <v>1.024601340293884</v>
+        <v>0.4498492050192014</v>
       </c>
     </row>
     <row r="995">
       <c r="A995" t="n">
-        <v>1.627869844436646</v>
+        <v>0.6083156893886861</v>
       </c>
     </row>
     <row r="996">
       <c r="A996" t="n">
-        <v>2.008466958999634</v>
+        <v>0.7082908849969325</v>
       </c>
     </row>
     <row r="997">
       <c r="A997" t="n">
-        <v>2.269457101821899</v>
+        <v>0.7768477383783363</v>
       </c>
     </row>
     <row r="998">
       <c r="A998" t="n">
-        <v>2.279245376586914</v>
+        <v>0.7794189209933786</v>
       </c>
     </row>
     <row r="999">
       <c r="A999" t="n">
-        <v>1.931053638458252</v>
+        <v>0.6879559650312488</v>
       </c>
     </row>
     <row r="1000">
       <c r="A1000" t="n">
-        <v>1.656629800796509</v>
+        <v>0.6158703506111272</v>
       </c>
     </row>
     <row r="1001">
       <c r="A1001" t="n">
-        <v>1.235300898551941</v>
+        <v>0.5051957348414451</v>
       </c>
     </row>
     <row r="1002">
       <c r="A1002" t="n">
-        <v>0.6421875953674316</v>
+        <v>0.3493968172069527</v>
       </c>
     </row>
     <row r="1003">
       <c r="A1003" t="n">
-        <v>-0.05377354845404625</v>
+        <v>0.1665818435065256</v>
       </c>
     </row>
     <row r="1004">
       <c r="A1004" t="n">
-        <v>-0.4987782537937164</v>
+        <v>0.04968807116669188</v>
       </c>
     </row>
     <row r="1005">
       <c r="A1005" t="n">
-        <v>-0.6531540751457214</v>
+        <v>0.00913665249770948</v>
       </c>
     </row>
     <row r="1006">
       <c r="A1006" t="n">
-        <v>-0.6817326545715332</v>
+        <v>0.001629635342358743</v>
       </c>
     </row>
     <row r="1007">
       <c r="A1007" t="n">
-        <v>-0.6893221735954285</v>
+        <v>-0.0003639784291425696</v>
       </c>
     </row>
     <row r="1008">
       <c r="A1008" t="n">
-        <v>-0.705905556678772</v>
+        <v>-0.004720099125189947</v>
       </c>
     </row>
     <row r="1009">
       <c r="A1009" t="n">
-        <v>-0.7147866487503052</v>
+        <v>-0.007052983120082734</v>
       </c>
     </row>
     <row r="1010">
       <c r="A1010" t="n">
-        <v>-0.6321638822555542</v>
+        <v>0.01465035336341058</v>
       </c>
     </row>
     <row r="1011">
       <c r="A1011" t="n">
-        <v>-0.6225347518920898</v>
+        <v>0.01717973194981953</v>
       </c>
     </row>
     <row r="1012">
       <c r="A1012" t="n">
-        <v>-0.695361316204071</v>
+        <v>-0.001950339545669671</v>
       </c>
     </row>
     <row r="1013">
       <c r="A1013" t="n">
-        <v>-0.7139175534248352</v>
+        <v>-0.006824689284314067</v>
       </c>
     </row>
     <row r="1014">
       <c r="A1014" t="n">
-        <v>-0.704218864440918</v>
+        <v>-0.004277039049435077</v>
       </c>
     </row>
     <row r="1015">
       <c r="A1015" t="n">
-        <v>-0.5462924242019653</v>
+        <v>0.03720705568084778</v>
       </c>
     </row>
     <row r="1016">
       <c r="A1016" t="n">
-        <v>-0.1472384631633759</v>
+        <v>0.1420304930810172</v>
       </c>
     </row>
     <row r="1017">
       <c r="A1017" t="n">
-        <v>0.3744092881679535</v>
+        <v>0.2790568497780028</v>
       </c>
     </row>
     <row r="1018">
       <c r="A1018" t="n">
-        <v>0.8956866264343262</v>
+        <v>0.4159859064240739</v>
       </c>
     </row>
     <row r="1019">
       <c r="A1019" t="n">
-        <v>1.484925270080566</v>
+        <v>0.5707670290453313</v>
       </c>
     </row>
     <row r="1020">
       <c r="A1020" t="n">
-        <v>1.95578670501709</v>
+        <v>0.6944528434168109</v>
       </c>
     </row>
     <row r="1021">
       <c r="A1021" t="n">
-        <v>2.186222314834595</v>
+        <v>0.7549836364394098</v>
       </c>
     </row>
     <row r="1022">
       <c r="A1022" t="n">
-        <v>1.953872919082642</v>
+        <v>0.6939501304013209</v>
       </c>
     </row>
     <row r="1023">
       <c r="A1023" t="n">
-        <v>1.681639909744263</v>
+        <v>0.6224400024517782</v>
       </c>
     </row>
     <row r="1024">
       <c r="A1024" t="n">
-        <v>1.595394492149353</v>
+        <v>0.5997850684955226</v>
       </c>
     </row>
     <row r="1025">
       <c r="A1025" t="n">
-        <v>1.199023485183716</v>
+        <v>0.4956663890874344</v>
       </c>
     </row>
     <row r="1026">
       <c r="A1026" t="n">
-        <v>0.5820810794830322</v>
+        <v>0.333608046212793</v>
       </c>
     </row>
     <row r="1027">
       <c r="A1027" t="n">
-        <v>-0.1215413510799408</v>
+        <v>0.1487806068070719</v>
       </c>
     </row>
     <row r="1028">
       <c r="A1028" t="n">
-        <v>-0.4834821224212646</v>
+        <v>0.05370605676746609</v>
       </c>
     </row>
     <row r="1029">
       <c r="A1029" t="n">
-        <v>-0.6351035833358765</v>
+        <v>0.01387815310416152</v>
       </c>
     </row>
     <row r="1030">
       <c r="A1030" t="n">
-        <v>-0.6845043897628784</v>
+        <v>0.0009015563387983205</v>
       </c>
     </row>
     <row r="1031">
       <c r="A1031" t="n">
-        <v>-0.7387768030166626</v>
+        <v>-0.01335471341093117</v>
       </c>
     </row>
     <row r="1032">
       <c r="A1032" t="n">
-        <v>-0.7254703640937805</v>
+        <v>-0.009859379938180535</v>
       </c>
     </row>
     <row r="1033">
       <c r="A1033" t="n">
-        <v>-0.7534893155097961</v>
+        <v>-0.01721939408797388</v>
       </c>
     </row>
     <row r="1034">
       <c r="A1034" t="n">
-        <v>-0.722978413105011</v>
+        <v>-0.009204794608929007</v>
       </c>
     </row>
     <row r="1035">
       <c r="A1035" t="n">
-        <v>-0.685234010219574</v>
+        <v>0.0007098997416071506</v>
       </c>
     </row>
     <row r="1036">
       <c r="A1036" t="n">
-        <v>-0.7120530605316162</v>
+        <v>-0.006334924557842653</v>
       </c>
     </row>
     <row r="1037">
       <c r="A1037" t="n">
-        <v>-0.7324361801147461</v>
+        <v>-0.01168915949409421</v>
       </c>
     </row>
     <row r="1038">
       <c r="A1038" t="n">
-        <v>-0.6972116231918335</v>
+        <v>-0.00243637792052509</v>
       </c>
     </row>
     <row r="1039">
       <c r="A1039" t="n">
-        <v>-0.539369523525238</v>
+        <v>0.03902556224027609</v>
       </c>
     </row>
     <row r="1040">
       <c r="A1040" t="n">
-        <v>-0.3881202340126038</v>
+        <v>0.07875570397294906</v>
       </c>
     </row>
     <row r="1041">
       <c r="A1041" t="n">
-        <v>-0.04588194563984871</v>
+        <v>0.1686548086048499</v>
       </c>
     </row>
     <row r="1042">
       <c r="A1042" t="n">
-        <v>0.1536841094493866</v>
+        <v>0.2210767914073769</v>
       </c>
     </row>
     <row r="1043">
       <c r="A1043" t="n">
-        <v>0.6128771305084229</v>
+        <v>0.3416975484907074</v>
       </c>
     </row>
     <row r="1044">
       <c r="A1044" t="n">
-        <v>1.315315961837769</v>
+        <v>0.5262140802190555</v>
       </c>
     </row>
     <row r="1045">
       <c r="A1045" t="n">
-        <v>2.100511789321899</v>
+        <v>0.7324692078587927</v>
       </c>
     </row>
     <row r="1046">
       <c r="A1046" t="n">
-        <v>2.388578653335571</v>
+        <v>0.8081385704893775</v>
       </c>
     </row>
     <row r="1047">
       <c r="A1047" t="n">
-        <v>2.156742572784424</v>
+        <v>0.7472399020148055</v>
       </c>
     </row>
     <row r="1048">
       <c r="A1048" t="n">
-        <v>1.778869032859802</v>
+        <v>0.6479801346029526</v>
       </c>
     </row>
     <row r="1049">
       <c r="A1049" t="n">
-        <v>1.175765037536621</v>
+        <v>0.4895568633866619</v>
       </c>
     </row>
     <row r="1050">
       <c r="A1050" t="n">
-        <v>0.6435785293579102</v>
+        <v>0.3497621875485958</v>
       </c>
     </row>
     <row r="1051">
       <c r="A1051" t="n">
-        <v>-0.008959013968706131</v>
+        <v>0.1783537190143282</v>
       </c>
     </row>
     <row r="1052">
       <c r="A1052" t="n">
-        <v>-0.4533608853816986</v>
+        <v>0.06161829900411761</v>
       </c>
     </row>
     <row r="1053">
       <c r="A1053" t="n">
-        <v>-0.5853328704833984</v>
+        <v>0.0269519168364529</v>
       </c>
     </row>
     <row r="1054">
       <c r="A1054" t="n">
-        <v>-0.6864868998527527</v>
+        <v>0.0003807908719920816</v>
       </c>
     </row>
     <row r="1055">
       <c r="A1055" t="n">
-        <v>-0.7292503118515015</v>
+        <v>-0.01085229607444976</v>
       </c>
     </row>
     <row r="1056">
       <c r="A1056" t="n">
-        <v>-0.7477366924285889</v>
+        <v>-0.01570829587992631</v>
       </c>
     </row>
     <row r="1057">
       <c r="A1057" t="n">
-        <v>-0.7596110701560974</v>
+        <v>-0.01882745572273536</v>
       </c>
     </row>
     <row r="1058">
       <c r="A1058" t="n">
-        <v>-0.7576587796211243</v>
+        <v>-0.0183146283242876</v>
       </c>
     </row>
     <row r="1059">
       <c r="A1059" t="n">
-        <v>-0.6894108057022095</v>
+        <v>-0.0003872602982727957</v>
       </c>
     </row>
     <row r="1060">
       <c r="A1060" t="n">
-        <v>-0.701395571231842</v>
+        <v>-0.003535416793152613</v>
       </c>
     </row>
     <row r="1061">
       <c r="A1061" t="n">
-        <v>-0.7456651329994202</v>
+        <v>-0.01516413894541288</v>
       </c>
     </row>
     <row r="1062">
       <c r="A1062" t="n">
-        <v>-0.7520352005958557</v>
+        <v>-0.01683742739039398</v>
       </c>
     </row>
     <row r="1063">
       <c r="A1063" t="n">
-        <v>-0.6418678760528564</v>
+        <v>0.01210130966091047</v>
       </c>
     </row>
     <row r="1064">
       <c r="A1064" t="n">
-        <v>-0.3143481314182281</v>
+        <v>0.09813414932919652</v>
       </c>
     </row>
     <row r="1065">
       <c r="A1065" t="n">
-        <v>0.2849433720111847</v>
+        <v>0.2555559557202166</v>
       </c>
     </row>
     <row r="1066">
       <c r="A1066" t="n">
-        <v>1.167662262916565</v>
+        <v>0.4874284277085832</v>
       </c>
     </row>
     <row r="1067">
       <c r="A1067" t="n">
-        <v>1.939610242843628</v>
+        <v>0.6902036126471605</v>
       </c>
     </row>
     <row r="1068">
       <c r="A1068" t="n">
-        <v>2.391252994537354</v>
+        <v>0.808841066053692</v>
       </c>
     </row>
     <row r="1069">
       <c r="A1069" t="n">
-        <v>2.421441555023193</v>
+        <v>0.8167709928035798</v>
       </c>
     </row>
     <row r="1070">
       <c r="A1070" t="n">
-        <v>2.628499269485474</v>
+        <v>0.8711608836185218</v>
       </c>
     </row>
     <row r="1071">
       <c r="A1071" t="n">
-        <v>2.537583351135254</v>
+        <v>0.8472791031919855</v>
       </c>
     </row>
     <row r="1072">
       <c r="A1072" t="n">
-        <v>2.178110122680664</v>
+        <v>0.7528527269648801</v>
       </c>
     </row>
     <row r="1073">
       <c r="A1073" t="n">
-        <v>1.6242436170578</v>
+        <v>0.60736315249955</v>
       </c>
     </row>
     <row r="1074">
       <c r="A1074" t="n">
-        <v>0.9164249300956726</v>
+        <v>0.4214334410631816</v>
       </c>
     </row>
     <row r="1075">
       <c r="A1075" t="n">
-        <v>0.1710181832313538</v>
+        <v>0.2256301034287509</v>
       </c>
     </row>
     <row r="1076">
       <c r="A1076" t="n">
-        <v>-0.3180857598781586</v>
+        <v>0.09715234962001704</v>
       </c>
     </row>
     <row r="1077">
       <c r="A1077" t="n">
-        <v>-0.5276461243629456</v>
+        <v>0.04210506305517195</v>
       </c>
     </row>
     <row r="1078">
       <c r="A1078" t="n">
-        <v>-0.6301286816596985</v>
+        <v>0.01518495956479055</v>
       </c>
     </row>
     <row r="1079">
       <c r="A1079" t="n">
-        <v>-0.6628802418708801</v>
+        <v>0.006581784413691921</v>
       </c>
     </row>
     <row r="1080">
       <c r="A1080" t="n">
-        <v>-0.6683916449546814</v>
+        <v>0.005134049840055943</v>
       </c>
     </row>
     <row r="1081">
       <c r="A1081" t="n">
-        <v>-0.7224308252334595</v>
+        <v>-0.009060954305163377</v>
       </c>
     </row>
     <row r="1082">
       <c r="A1082" t="n">
-        <v>-0.7240896224975586</v>
+        <v>-0.009496686933202741</v>
       </c>
     </row>
     <row r="1083">
       <c r="A1083" t="n">
-        <v>-0.6822943687438965</v>
+        <v>0.001482084343916668</v>
       </c>
     </row>
     <row r="1084">
       <c r="A1084" t="n">
-        <v>-0.6917016506195068</v>
+        <v>-0.0009890191134386273</v>
       </c>
     </row>
     <row r="1085">
       <c r="A1085" t="n">
-        <v>-0.7250431180000305</v>
+        <v>-0.009747150995392667</v>
       </c>
     </row>
     <row r="1086">
       <c r="A1086" t="n">
-        <v>-0.7252107858657837</v>
+        <v>-0.009791193966383505</v>
       </c>
     </row>
     <row r="1087">
       <c r="A1087" t="n">
-        <v>-0.5878313779830933</v>
+        <v>0.02629560924384944</v>
       </c>
     </row>
     <row r="1088">
       <c r="A1088" t="n">
-        <v>-0.2430995106697083</v>
+        <v>0.1168497268351636</v>
       </c>
     </row>
     <row r="1089">
       <c r="A1089" t="n">
-        <v>0.3418973386287689</v>
+        <v>0.2705166155239476</v>
       </c>
     </row>
     <row r="1090">
       <c r="A1090" t="n">
-        <v>1.003686785697937</v>
+        <v>0.4443553728098058</v>
       </c>
     </row>
     <row r="1091">
       <c r="A1091" t="n">
-        <v>1.615168571472168</v>
+        <v>0.604979320823319</v>
       </c>
     </row>
     <row r="1092">
       <c r="A1092" t="n">
-        <v>1.995851039886475</v>
+        <v>0.7049769371690198</v>
       </c>
     </row>
     <row r="1093">
       <c r="A1093" t="n">
-        <v>2.059639453887939</v>
+        <v>0.7217328686338675</v>
       </c>
     </row>
     <row r="1094">
       <c r="A1094" t="n">
-        <v>2.121851682662964</v>
+        <v>0.7380747679889101</v>
       </c>
     </row>
     <row r="1095">
       <c r="A1095" t="n">
-        <v>2.074900150299072</v>
+        <v>0.7257415461840715</v>
       </c>
     </row>
     <row r="1096">
       <c r="A1096" t="n">
-        <v>1.859888911247253</v>
+        <v>0.6692624246677167</v>
       </c>
     </row>
     <row r="1097">
       <c r="A1097" t="n">
-        <v>1.378020763397217</v>
+        <v>0.5426853685226471</v>
       </c>
     </row>
     <row r="1098">
       <c r="A1098" t="n">
-        <v>0.5332479476928711</v>
+        <v>0.3207805661398282</v>
       </c>
     </row>
     <row r="1099">
       <c r="A1099" t="n">
-        <v>-0.1119313389062881</v>
+        <v>0.151304963430116</v>
       </c>
     </row>
     <row r="1100">
       <c r="A1100" t="n">
-        <v>-0.4794613420963287</v>
+        <v>0.05476223476803979</v>
       </c>
     </row>
     <row r="1101">
       <c r="A1101" t="n">
-        <v>-0.6184906959533691</v>
+        <v>0.01824202398529259</v>
       </c>
     </row>
     <row r="1102">
       <c r="A1102" t="n">
-        <v>-0.6848409175872803</v>
+        <v>0.0008131572580253876</v>
       </c>
     </row>
     <row r="1103">
       <c r="A1103" t="n">
-        <v>-0.7044656872749329</v>
+        <v>-0.004341874436165599</v>
       </c>
     </row>
     <row r="1104">
       <c r="A1104" t="n">
-        <v>-0.678773820400238</v>
+        <v>0.002406861479207573</v>
       </c>
     </row>
     <row r="1105">
       <c r="A1105" t="n">
-        <v>-0.5712072253227234</v>
+        <v>0.03066243928655796</v>
       </c>
     </row>
     <row r="1106">
       <c r="A1106" t="n">
-        <v>-0.6895533204078674</v>
+        <v>-0.00042469604076803</v>
       </c>
     </row>
     <row r="1107">
       <c r="A1107" t="n">
-        <v>-0.6235507726669312</v>
+        <v>0.01691284375802796</v>
       </c>
     </row>
     <row r="1108">
       <c r="A1108" t="n">
-        <v>-0.6401206254959106</v>
+        <v>0.01256027718726138</v>
       </c>
     </row>
     <row r="1109">
       <c r="A1109" t="n">
-        <v>-0.6652733087539673</v>
+        <v>0.005953173947175455</v>
       </c>
     </row>
     <row r="1110">
       <c r="A1110" t="n">
-        <v>-0.6480591297149658</v>
+        <v>0.01047499203461849</v>
       </c>
     </row>
     <row r="1111">
       <c r="A1111" t="n">
-        <v>-0.5525258183479309</v>
+        <v>0.03556966859828475</v>
       </c>
     </row>
     <row r="1112">
       <c r="A1112" t="n">
-        <v>-0.3017343282699585</v>
+        <v>0.1014475413357549</v>
       </c>
     </row>
     <row r="1113">
       <c r="A1113" t="n">
-        <v>0.2419776916503906</v>
+        <v>0.2442697369493675</v>
       </c>
     </row>
     <row r="1114">
       <c r="A1114" t="n">
-        <v>1.03045642375946</v>
+        <v>0.4513872175063579</v>
       </c>
     </row>
     <row r="1115">
       <c r="A1115" t="n">
-        <v>1.790711641311646</v>
+        <v>0.6510909492969745</v>
       </c>
     </row>
     <row r="1116">
       <c r="A1116" t="n">
-        <v>2.295493841171265</v>
+        <v>0.7836870653460213</v>
       </c>
     </row>
     <row r="1117">
       <c r="A1117" t="n">
-        <v>2.608577728271484</v>
+        <v>0.8659278960222465</v>
       </c>
     </row>
     <row r="1118">
       <c r="A1118" t="n">
-        <v>2.622607469558716</v>
+        <v>0.8696132264565946</v>
       </c>
     </row>
     <row r="1119">
       <c r="A1119" t="n">
-        <v>2.420150995254517</v>
+        <v>0.816431988748161</v>
       </c>
     </row>
     <row r="1120">
       <c r="A1120" t="n">
-        <v>1.9782555103302</v>
+        <v>0.7003549459822522</v>
       </c>
     </row>
     <row r="1121">
       <c r="A1121" t="n">
-        <v>1.376956939697266</v>
+        <v>0.542405923465326</v>
       </c>
     </row>
     <row r="1122">
       <c r="A1122" t="n">
-        <v>0.7297524809837341</v>
+        <v>0.3723983488343154</v>
       </c>
     </row>
     <row r="1123">
       <c r="A1123" t="n">
-        <v>0.03676039725542068</v>
+        <v>0.1903632874144309</v>
       </c>
     </row>
     <row r="1124">
       <c r="A1124" t="n">
-        <v>-0.4278252720832825</v>
+        <v>0.06832599025242629</v>
       </c>
     </row>
     <row r="1125">
       <c r="A1125" t="n">
-        <v>-0.6140096783638</v>
+        <v>0.01941909704470229</v>
       </c>
     </row>
     <row r="1126">
       <c r="A1126" t="n">
-        <v>-0.6923821568489075</v>
+        <v>-0.001167774392429849</v>
       </c>
     </row>
     <row r="1127">
       <c r="A1127" t="n">
-        <v>-0.7162529230117798</v>
+        <v>-0.007438143833333494</v>
       </c>
     </row>
     <row r="1128">
       <c r="A1128" t="n">
-        <v>-0.7235650420188904</v>
+        <v>-0.009358890208108428</v>
       </c>
     </row>
     <row r="1129">
       <c r="A1129" t="n">
-        <v>-0.7419618368148804</v>
+        <v>-0.01419135763342172</v>
       </c>
     </row>
     <row r="1130">
       <c r="A1130" t="n">
-        <v>-0.7220606207847595</v>
+        <v>-0.008963709053537328</v>
       </c>
     </row>
     <row r="1131">
       <c r="A1131" t="n">
-        <v>-0.6879616975784302</v>
+        <v>-6.608783616190994e-06</v>
       </c>
     </row>
     <row r="1132">
       <c r="A1132" t="n">
-        <v>-0.7230053544044495</v>
+        <v>-0.009211871545611483</v>
       </c>
     </row>
     <row r="1133">
       <c r="A1133" t="n">
-        <v>-0.7453099489212036</v>
+        <v>-0.01507083924255673</v>
       </c>
     </row>
     <row r="1134">
       <c r="A1134" t="n">
-        <v>-0.7102000713348389</v>
+        <v>-0.00584818162070691</v>
       </c>
     </row>
     <row r="1135">
       <c r="A1135" t="n">
-        <v>-0.5502293109893799</v>
+        <v>0.03617291482270907</v>
       </c>
     </row>
     <row r="1136">
       <c r="A1136" t="n">
-        <v>-0.1955580115318298</v>
+        <v>0.1293379210277973</v>
       </c>
     </row>
     <row r="1137">
       <c r="A1137" t="n">
-        <v>0.3004995286464691</v>
+        <v>0.2596422447198345</v>
       </c>
     </row>
     <row r="1138">
       <c r="A1138" t="n">
-        <v>0.9086087346076965</v>
+        <v>0.4193802839505221</v>
       </c>
     </row>
     <row r="1139">
       <c r="A1139" t="n">
-        <v>1.585411667823792</v>
+        <v>0.5971627816297466</v>
       </c>
     </row>
     <row r="1140">
       <c r="A1140" t="n">
-        <v>2.055162191390991</v>
+        <v>0.7205567819616503</v>
       </c>
     </row>
     <row r="1141">
       <c r="A1141" t="n">
-        <v>2.345739126205444</v>
+        <v>0.7968854896311137</v>
       </c>
     </row>
     <row r="1142">
       <c r="A1142" t="n">
-        <v>2.41494083404541</v>
+        <v>0.8150633843470767</v>
       </c>
     </row>
     <row r="1143">
       <c r="A1143" t="n">
-        <v>2.306860208511353</v>
+        <v>0.7866727810929346</v>
       </c>
     </row>
     <row r="1144">
       <c r="A1144" t="n">
-        <v>1.952500820159912</v>
+        <v>0.6935897076525797</v>
       </c>
     </row>
     <row r="1145">
       <c r="A1145" t="n">
-        <v>1.408978939056396</v>
+        <v>0.5508174576761731</v>
       </c>
     </row>
     <row r="1146">
       <c r="A1146" t="n">
-        <v>0.6717933416366577</v>
+        <v>0.3571736504017933</v>
       </c>
     </row>
     <row r="1147">
       <c r="A1147" t="n">
-        <v>-0.06228692829608917</v>
+        <v>0.1643455501074734</v>
       </c>
     </row>
     <row r="1148">
       <c r="A1148" t="n">
-        <v>-0.4558072090148926</v>
+        <v>0.0609756990621016</v>
       </c>
     </row>
     <row r="1149">
       <c r="A1149" t="n">
-        <v>-0.5979610085487366</v>
+        <v>0.02363475933592965</v>
       </c>
     </row>
     <row r="1150">
       <c r="A1150" t="n">
-        <v>-0.6695383191108704</v>
+        <v>0.004832841636742219</v>
       </c>
     </row>
     <row r="1151">
       <c r="A1151" t="n">
-        <v>-0.6772880554199219</v>
+        <v>0.002797142011695453</v>
       </c>
     </row>
     <row r="1152">
       <c r="A1152" t="n">
-        <v>-0.6689671277999878</v>
+        <v>0.004982882088574808</v>
       </c>
     </row>
     <row r="1153">
       <c r="A1153" t="n">
-        <v>-0.7193974852561951</v>
+        <v>-0.008264156993860738</v>
       </c>
     </row>
     <row r="1154">
       <c r="A1154" t="n">
-        <v>-0.7174980640411377</v>
+        <v>-0.007765217300805399</v>
       </c>
     </row>
     <row r="1155">
       <c r="A1155" t="n">
-        <v>-0.6764169931411743</v>
+        <v>0.0030259525264697</v>
       </c>
     </row>
     <row r="1156">
       <c r="A1156" t="n">
-        <v>-0.6936571002006531</v>
+        <v>-0.001502676329683261</v>
       </c>
     </row>
     <row r="1157">
       <c r="A1157" t="n">
-        <v>-0.7206841707229614</v>
+        <v>-0.00860214334820808</v>
       </c>
     </row>
     <row r="1158">
       <c r="A1158" t="n">
-        <v>-0.7071441411972046</v>
+        <v>-0.005045450329309892</v>
       </c>
     </row>
     <row r="1159">
       <c r="A1159" t="n">
-        <v>-0.6156312227249146</v>
+        <v>0.01899315000388982</v>
       </c>
     </row>
     <row r="1160">
       <c r="A1160" t="n">
-        <v>-0.3622367084026337</v>
+        <v>0.08555478477748719</v>
       </c>
     </row>
     <row r="1161">
       <c r="A1161" t="n">
-        <v>0.03318047523498535</v>
+        <v>0.1894229140102178</v>
       </c>
     </row>
     <row r="1162">
       <c r="A1162" t="n">
-        <v>0.5473679304122925</v>
+        <v>0.3244896011806747</v>
       </c>
     </row>
     <row r="1163">
       <c r="A1163" t="n">
-        <v>1.233133912086487</v>
+        <v>0.5046265111466912</v>
       </c>
     </row>
     <row r="1164">
       <c r="A1164" t="n">
-        <v>1.616965293884277</v>
+        <v>0.6054512836095072</v>
       </c>
     </row>
     <row r="1165">
       <c r="A1165" t="n">
-        <v>0.8911218643188477</v>
+        <v>0.4147868353645781</v>
       </c>
     </row>
     <row r="1166">
       <c r="A1166" t="n">
-        <v>1.171419143676758</v>
+        <v>0.4884152846092416</v>
       </c>
     </row>
     <row r="1167">
       <c r="A1167" t="n">
-        <v>0.8416333794593811</v>
+        <v>0.4017872072411177</v>
       </c>
     </row>
     <row r="1168">
       <c r="A1168" t="n">
-        <v>0.1649157404899597</v>
+        <v>0.2240271146424079</v>
       </c>
     </row>
     <row r="1169">
       <c r="A1169" t="n">
-        <v>-0.02259860746562481</v>
+        <v>0.1747708725457281</v>
       </c>
     </row>
     <row r="1170">
       <c r="A1170" t="n">
-        <v>-0.2690900862216949</v>
+        <v>0.1100225261671702</v>
       </c>
     </row>
     <row r="1171">
       <c r="A1171" t="n">
-        <v>-0.517709493637085</v>
+        <v>0.04471521579278662</v>
       </c>
     </row>
     <row r="1172">
       <c r="A1172" t="n">
-        <v>-0.5965158343315125</v>
+        <v>0.0240143774925751</v>
       </c>
     </row>
     <row r="1173">
       <c r="A1173" t="n">
-        <v>-0.6281145215034485</v>
+        <v>0.01571403886650477</v>
       </c>
     </row>
     <row r="1174">
       <c r="A1174" t="n">
-        <v>-0.6643256545066833</v>
+        <v>0.006202103629288219</v>
       </c>
     </row>
     <row r="1175">
       <c r="A1175" t="n">
-        <v>-0.6731586456298828</v>
+        <v>0.003881854784622774</v>
       </c>
     </row>
     <row r="1176">
       <c r="A1176" t="n">
-        <v>-0.8349401354789734</v>
+        <v>-0.03861488382577874</v>
       </c>
     </row>
     <row r="1177">
       <c r="A1177" t="n">
-        <v>-0.6570960879325867</v>
+        <v>0.008101165142768346</v>
       </c>
     </row>
     <row r="1178">
       <c r="A1178" t="n">
-        <v>-0.6609626412391663</v>
+        <v>0.007085499473313994</v>
       </c>
     </row>
     <row r="1179">
       <c r="A1179" t="n">
-        <v>-0.6688088774681091</v>
+        <v>0.005024451263114682</v>
       </c>
     </row>
     <row r="1180">
       <c r="A1180" t="n">
-        <v>-0.7097209692001343</v>
+        <v>-0.005722331140499193</v>
       </c>
     </row>
     <row r="1181">
       <c r="A1181" t="n">
-        <v>-0.7123962640762329</v>
+        <v>-0.00642507721584662</v>
       </c>
     </row>
     <row r="1182">
       <c r="A1182" t="n">
-        <v>-0.6760957837104797</v>
+        <v>0.003110327773774901</v>
       </c>
     </row>
     <row r="1183">
       <c r="A1183" t="n">
-        <v>-0.5520102977752686</v>
+        <v>0.03570508546856546</v>
       </c>
     </row>
     <row r="1184">
       <c r="A1184" t="n">
-        <v>-0.2945182323455811</v>
+        <v>0.1033430643808937</v>
       </c>
     </row>
     <row r="1185">
       <c r="A1185" t="n">
-        <v>0.184639573097229</v>
+        <v>0.2292081681701527</v>
       </c>
     </row>
     <row r="1186">
       <c r="A1186" t="n">
-        <v>0.88181471824646</v>
+        <v>0.4123420355656887</v>
       </c>
     </row>
     <row r="1187">
       <c r="A1187" t="n">
-        <v>1.49126935005188</v>
+        <v>0.5724334910646629</v>
       </c>
     </row>
     <row r="1188">
       <c r="A1188" t="n">
-        <v>2.063882350921631</v>
+        <v>0.7228473922197227</v>
       </c>
     </row>
     <row r="1189">
       <c r="A1189" t="n">
-        <v>2.473052501678467</v>
+        <v>0.8303281488879406</v>
       </c>
     </row>
     <row r="1190">
       <c r="A1190" t="n">
-        <v>2.466147422790527</v>
+        <v>0.8285143237534416</v>
       </c>
     </row>
     <row r="1191">
       <c r="A1191" t="n">
-        <v>2.174170970916748</v>
+        <v>0.751817991143038</v>
       </c>
     </row>
     <row r="1192">
       <c r="A1192" t="n">
-        <v>1.631734728813171</v>
+        <v>0.6093309166638327</v>
       </c>
     </row>
     <row r="1193">
       <c r="A1193" t="n">
-        <v>1.115921854972839</v>
+        <v>0.4738372647514916</v>
       </c>
     </row>
     <row r="1194">
       <c r="A1194" t="n">
-        <v>0.4621507227420807</v>
+        <v>0.3021047572603512</v>
       </c>
     </row>
     <row r="1195">
       <c r="A1195" t="n">
-        <v>-0.160990908741951</v>
+        <v>0.1384180026437513</v>
       </c>
     </row>
     <row r="1196">
       <c r="A1196" t="n">
-        <v>-0.4716104865074158</v>
+        <v>0.05682449639105526</v>
       </c>
     </row>
     <row r="1197">
       <c r="A1197" t="n">
-        <v>-0.6111841797828674</v>
+        <v>0.0201612986077486</v>
       </c>
     </row>
     <row r="1198">
       <c r="A1198" t="n">
-        <v>-0.687307596206665</v>
+        <v>0.0001652104711485913</v>
       </c>
     </row>
     <row r="1199">
       <c r="A1199" t="n">
-        <v>-0.6849561929702759</v>
+        <v>0.0007828767369104928</v>
       </c>
     </row>
     <row r="1200">
       <c r="A1200" t="n">
-        <v>-0.7372565865516663</v>
+        <v>-0.01295538316737585</v>
       </c>
     </row>
     <row r="1201">
       <c r="A1201" t="n">
-        <v>-0.8123272061347961</v>
+        <v>-0.0326749227804739</v>
       </c>
     </row>
     <row r="1202">
       <c r="A1202" t="n">
-        <v>-0.751547634601593</v>
+        <v>-0.01670935362476833</v>
       </c>
     </row>
     <row r="1203">
       <c r="A1203" t="n">
-        <v>-0.7302393317222595</v>
+        <v>-0.01111209167261928</v>
       </c>
     </row>
     <row r="1204">
       <c r="A1204" t="n">
-        <v>-0.743068516254425</v>
+        <v>-0.01448206003028865</v>
       </c>
     </row>
     <row r="1205">
       <c r="A1205" t="n">
-        <v>-0.7419923543930054</v>
+        <v>-0.014199373986478</v>
       </c>
     </row>
     <row r="1206">
       <c r="A1206" t="n">
-        <v>-0.6799218654632568</v>
+        <v>0.002105293166283884</v>
       </c>
     </row>
     <row r="1207">
       <c r="A1207" t="n">
-        <v>-0.4256324470043182</v>
+        <v>0.06890200123048071</v>
       </c>
     </row>
     <row r="1208">
       <c r="A1208" t="n">
-        <v>-0.07701867818832397</v>
+        <v>0.1604758161531867</v>
       </c>
     </row>
     <row r="1209">
       <c r="A1209" t="n">
-        <v>0.4346355795860291</v>
+        <v>0.2948770833922145</v>
       </c>
     </row>
     <row r="1210">
       <c r="A1210" t="n">
-        <v>0.9539032578468323</v>
+        <v>0.4312782428355084</v>
       </c>
     </row>
     <row r="1211">
       <c r="A1211" t="n">
-        <v>1.659632086753845</v>
+        <v>0.6166589906569174</v>
       </c>
     </row>
     <row r="1212">
       <c r="A1212" t="n">
-        <v>2.136740922927856</v>
+        <v>0.7419858714917573</v>
       </c>
     </row>
     <row r="1213">
       <c r="A1213" t="n">
-        <v>2.452717542648315</v>
+        <v>0.8249865647588559</v>
       </c>
     </row>
     <row r="1214">
       <c r="A1214" t="n">
-        <v>2.546104669570923</v>
+        <v>0.8495174818996758</v>
       </c>
     </row>
     <row r="1215">
       <c r="A1215" t="n">
-        <v>2.430993556976318</v>
+        <v>0.8192801113101942</v>
       </c>
     </row>
     <row r="1216">
       <c r="A1216" t="n">
-        <v>2.061000823974609</v>
+        <v>0.7220904731334872</v>
       </c>
     </row>
     <row r="1217">
       <c r="A1217" t="n">
-        <v>1.49429178237915</v>
+        <v>0.5732274231560255</v>
       </c>
     </row>
     <row r="1218">
       <c r="A1218" t="n">
-        <v>0.769284188747406</v>
+        <v>0.3827825321745889</v>
       </c>
     </row>
     <row r="1219">
       <c r="A1219" t="n">
-        <v>0.07898015528917313</v>
+        <v>0.2014535674151183</v>
       </c>
     </row>
     <row r="1220">
       <c r="A1220" t="n">
-        <v>-0.3798612952232361</v>
+        <v>0.08092516083268286</v>
       </c>
     </row>
     <row r="1221">
       <c r="A1221" t="n">
-        <v>-0.5701336860656738</v>
+        <v>0.03094443642502784</v>
       </c>
     </row>
     <row r="1222">
       <c r="A1222" t="n">
-        <v>-0.6709650754928589</v>
+        <v>0.004458061474421737</v>
       </c>
     </row>
     <row r="1223">
       <c r="A1223" t="n">
-        <v>-0.7072598338127136</v>
+        <v>-0.005075840449001751</v>
       </c>
     </row>
     <row r="1224">
       <c r="A1224" t="n">
-        <v>-0.7130154967308044</v>
+        <v>-0.006587737160967055</v>
       </c>
     </row>
     <row r="1225">
       <c r="A1225" t="n">
-        <v>-0.7691032886505127</v>
+        <v>-0.02132087031896801</v>
       </c>
     </row>
     <row r="1226">
       <c r="A1226" t="n">
-        <v>-0.7585974931716919</v>
+        <v>-0.01856120946546588</v>
       </c>
     </row>
     <row r="1227">
       <c r="A1227" t="n">
-        <v>-0.7056403756141663</v>
+        <v>-0.004650441401073985</v>
       </c>
     </row>
     <row r="1228">
       <c r="A1228" t="n">
-        <v>-0.715181291103363</v>
+        <v>-0.007156647716929615</v>
       </c>
     </row>
     <row r="1229">
       <c r="A1229" t="n">
-        <v>-0.7269560694694519</v>
+        <v>-0.01024964481372884</v>
       </c>
     </row>
     <row r="1230">
       <c r="A1230" t="n">
-        <v>-0.7048097252845764</v>
+        <v>-0.004432246291323466</v>
       </c>
     </row>
     <row r="1231">
       <c r="A1231" t="n">
-        <v>-0.5683629512786865</v>
+        <v>0.03140957278556661</v>
       </c>
     </row>
     <row r="1232">
       <c r="A1232" t="n">
-        <v>-0.2352520227432251</v>
+        <v>0.1189111038410937</v>
       </c>
     </row>
     <row r="1233">
       <c r="A1233" t="n">
-        <v>0.3290442228317261</v>
+        <v>0.2671403609050437</v>
       </c>
     </row>
     <row r="1234">
       <c r="A1234" t="n">
-        <v>1.054506659507751</v>
+        <v>0.4577047299922858</v>
       </c>
     </row>
     <row r="1235">
       <c r="A1235" t="n">
-        <v>1.751879334449768</v>
+        <v>0.6408904844855338</v>
       </c>
     </row>
     <row r="1236">
       <c r="A1236" t="n">
-        <v>2.233198165893555</v>
+        <v>0.7673232462755903</v>
       </c>
     </row>
     <row r="1237">
       <c r="A1237" t="n">
-        <v>2.510056972503662</v>
+        <v>0.8400484779907411</v>
       </c>
     </row>
     <row r="1238">
       <c r="A1238" t="n">
-        <v>2.351967334747314</v>
+        <v>0.7985215145599347</v>
       </c>
     </row>
     <row r="1239">
       <c r="A1239" t="n">
-        <v>1.883545875549316</v>
+        <v>0.6754766326664077</v>
       </c>
     </row>
     <row r="1240">
       <c r="A1240" t="n">
-        <v>1.133671641349792</v>
+        <v>0.4784997760978482</v>
       </c>
     </row>
     <row r="1241">
       <c r="A1241" t="n">
-        <v>0.9611111283302307</v>
+        <v>0.4331716052229875</v>
       </c>
     </row>
     <row r="1242">
       <c r="A1242" t="n">
-        <v>0.4493192136287689</v>
+        <v>0.2987341782820389</v>
       </c>
     </row>
     <row r="1243">
       <c r="A1243" t="n">
-        <v>-0.1641537547111511</v>
+        <v>0.1375871867170131</v>
       </c>
     </row>
     <row r="1244">
       <c r="A1244" t="n">
-        <v>-0.4811667501926422</v>
+        <v>0.05431425841326212</v>
       </c>
     </row>
     <row r="1245">
       <c r="A1245" t="n">
-        <v>-0.6261606812477112</v>
+        <v>0.01622727334538118</v>
       </c>
     </row>
     <row r="1246">
       <c r="A1246" t="n">
-        <v>-0.6769718527793884</v>
+        <v>0.002880202076077365</v>
       </c>
     </row>
     <row r="1247">
       <c r="A1247" t="n">
-        <v>-0.7057853937149048</v>
+        <v>-0.004688534735030864</v>
       </c>
     </row>
     <row r="1248">
       <c r="A1248" t="n">
-        <v>-0.7145892977714539</v>
+        <v>-0.007001142993189519</v>
       </c>
     </row>
     <row r="1249">
       <c r="A1249" t="n">
-        <v>-0.7770218253135681</v>
+        <v>-0.02340091039685729</v>
       </c>
     </row>
     <row r="1250">
       <c r="A1250" t="n">
-        <v>-0.7378137707710266</v>
+        <v>-0.01310174423841115</v>
       </c>
     </row>
     <row r="1251">
       <c r="A1251" t="n">
-        <v>-0.7093074917793274</v>
+        <v>-0.005613718950750385</v>
       </c>
     </row>
     <row r="1252">
       <c r="A1252" t="n">
-        <v>-0.7306948900222778</v>
+        <v>-0.01123175766169959</v>
       </c>
     </row>
     <row r="1253">
       <c r="A1253" t="n">
-        <v>-0.7399352788925171</v>
+        <v>-0.0136590216882784</v>
       </c>
     </row>
     <row r="1254">
       <c r="A1254" t="n">
-        <v>-0.6953175067901611</v>
+        <v>-0.00193883169509082</v>
       </c>
     </row>
     <row r="1255">
       <c r="A1255" t="n">
-        <v>-0.5306522846221924</v>
+        <v>0.0413154053083101</v>
       </c>
     </row>
     <row r="1256">
       <c r="A1256" t="n">
-        <v>-0.1890171766281128</v>
+        <v>0.1310560666046265</v>
       </c>
     </row>
     <row r="1257">
       <c r="A1257" t="n">
-        <v>0.3674857914447784</v>
+        <v>0.2772381866491789</v>
       </c>
     </row>
     <row r="1258">
       <c r="A1258" t="n">
-        <v>1.058059811592102</v>
+        <v>0.4586380714735177</v>
       </c>
     </row>
     <row r="1259">
       <c r="A1259" t="n">
-        <v>1.724189519882202</v>
+        <v>0.6336169279560075</v>
       </c>
     </row>
     <row r="1260">
       <c r="A1260" t="n">
-        <v>2.177012205123901</v>
+        <v>0.752564326138129</v>
       </c>
     </row>
     <row r="1261">
       <c r="A1261" t="n">
-        <v>2.424078464508057</v>
+        <v>0.8174636558098487</v>
       </c>
     </row>
     <row r="1262">
       <c r="A1262" t="n">
-        <v>2.467747926712036</v>
+        <v>0.8289347438945884</v>
       </c>
     </row>
     <row r="1263">
       <c r="A1263" t="n">
-        <v>2.218959808349609</v>
+        <v>0.7635831165527716</v>
       </c>
     </row>
     <row r="1264">
       <c r="A1264" t="n">
-        <v>1.811661601066589</v>
+        <v>0.6565940817284706</v>
       </c>
     </row>
     <row r="1265">
       <c r="A1265" t="n">
-        <v>1.251429796218872</v>
+        <v>0.5094324713733243</v>
       </c>
     </row>
     <row r="1266">
       <c r="A1266" t="n">
-        <v>0.4433188140392303</v>
+        <v>0.2971579941762278</v>
       </c>
     </row>
     <row r="1267">
       <c r="A1267" t="n">
-        <v>-0.1971223652362823</v>
+        <v>0.1289269968204956</v>
       </c>
     </row>
     <row r="1268">
       <c r="A1268" t="n">
-        <v>-0.5208061933517456</v>
+        <v>0.04390177515472848</v>
       </c>
     </row>
     <row r="1269">
       <c r="A1269" t="n">
-        <v>-0.6403411030769348</v>
+        <v>0.01250236216781772</v>
       </c>
     </row>
     <row r="1270">
       <c r="A1270" t="n">
-        <v>-0.7072773575782776</v>
+        <v>-0.005080443589233291</v>
       </c>
     </row>
     <row r="1271">
       <c r="A1271" t="n">
-        <v>-0.7148171067237854</v>
+        <v>-0.007060983816199462</v>
       </c>
     </row>
     <row r="1272">
       <c r="A1272" t="n">
-        <v>-0.7601232528686523</v>
+        <v>-0.01896199580440056</v>
       </c>
     </row>
     <row r="1273">
       <c r="A1273" t="n">
-        <v>-0.7850456833839417</v>
+        <v>-0.02550861628695447</v>
       </c>
     </row>
     <row r="1274">
       <c r="A1274" t="n">
-        <v>-0.7447112202644348</v>
+        <v>-0.01491356528464602</v>
       </c>
     </row>
     <row r="1275">
       <c r="A1275" t="n">
-        <v>-0.70994633436203</v>
+        <v>-0.005781530028987042</v>
       </c>
     </row>
     <row r="1276">
       <c r="A1276" t="n">
-        <v>-0.7306302785873413</v>
+        <v>-0.01121478553921326</v>
       </c>
     </row>
     <row r="1277">
       <c r="A1277" t="n">
-        <v>-0.7482161521911621</v>
+        <v>-0.01583424030177139</v>
       </c>
     </row>
     <row r="1278">
       <c r="A1278" t="n">
-        <v>-0.7281972765922546</v>
+        <v>-0.01057568492318955</v>
       </c>
     </row>
     <row r="1279">
       <c r="A1279" t="n">
-        <v>-0.5653402805328369</v>
+        <v>0.03220356750468745</v>
       </c>
     </row>
     <row r="1280">
       <c r="A1280" t="n">
-        <v>-0.2054797410964966</v>
+        <v>0.1267316825250734</v>
       </c>
     </row>
     <row r="1281">
       <c r="A1281" t="n">
-        <v>0.3315910696983337</v>
+        <v>0.2678093662756327</v>
       </c>
     </row>
     <row r="1282">
       <c r="A1282" t="n">
-        <v>1.024763822555542</v>
+        <v>0.4498918858364503</v>
       </c>
     </row>
     <row r="1283">
       <c r="A1283" t="n">
-        <v>1.698047161102295</v>
+        <v>0.6267498568914169</v>
       </c>
     </row>
     <row r="1284">
       <c r="A1284" t="n">
-        <v>2.192780494689941</v>
+        <v>0.7567063381856518</v>
       </c>
     </row>
     <row r="1285">
       <c r="A1285" t="n">
-        <v>2.344731569290161</v>
+        <v>0.7966208247247399</v>
       </c>
     </row>
     <row r="1286">
       <c r="A1286" t="n">
-        <v>2.471185445785522</v>
+        <v>0.8298377109130679</v>
       </c>
     </row>
     <row r="1287">
       <c r="A1287" t="n">
-        <v>2.165438413619995</v>
+        <v>0.7495241242415362</v>
       </c>
     </row>
     <row r="1288">
       <c r="A1288" t="n">
-        <v>1.831682682037354</v>
+        <v>0.6618532164138162</v>
       </c>
     </row>
     <row r="1289">
       <c r="A1289" t="n">
-        <v>1.092158555984497</v>
+        <v>0.4675951247726202</v>
       </c>
     </row>
     <row r="1290">
       <c r="A1290" t="n">
-        <v>0.3753732442855835</v>
+        <v>0.279310061633086</v>
       </c>
     </row>
     <row r="1291">
       <c r="A1291" t="n">
-        <v>-0.2055209279060364</v>
+        <v>0.1267208635798354</v>
       </c>
     </row>
     <row r="1292">
       <c r="A1292" t="n">
-        <v>-0.5202831029891968</v>
+        <v>0.04403918045633373</v>
       </c>
     </row>
     <row r="1293">
       <c r="A1293" t="n">
-        <v>-0.6315513253211975</v>
+        <v>0.01481125973129993</v>
       </c>
     </row>
     <row r="1294">
       <c r="A1294" t="n">
-        <v>-0.7024256587028503</v>
+        <v>-0.003806000022681028</v>
       </c>
     </row>
     <row r="1295">
       <c r="A1295" t="n">
-        <v>-0.763152539730072</v>
+        <v>-0.01975772844381288</v>
       </c>
     </row>
     <row r="1296">
       <c r="A1296" t="n">
-        <v>-0.7372235655784607</v>
+        <v>-0.01294670922285793</v>
       </c>
     </row>
     <row r="1297">
       <c r="A1297" t="n">
-        <v>-0.7705780267715454</v>
+        <v>-0.0217082543176367</v>
       </c>
     </row>
     <row r="1298">
       <c r="A1298" t="n">
-        <v>-0.7491716742515564</v>
+        <v>-0.01608523669990647</v>
       </c>
     </row>
     <row r="1299">
       <c r="A1299" t="n">
-        <v>-0.7118514776229858</v>
+        <v>-0.006281972788240442</v>
       </c>
     </row>
     <row r="1300">
       <c r="A1300" t="n">
-        <v>-0.7390862703323364</v>
+        <v>-0.01343600424114247</v>
       </c>
     </row>
     <row r="1301">
       <c r="A1301" t="n">
-        <v>-0.7508714199066162</v>
+        <v>-0.01653172564542565</v>
       </c>
     </row>
     <row r="1302">
       <c r="A1302" t="n">
-        <v>-0.7100694179534912</v>
+        <v>-0.005813861609184706</v>
       </c>
     </row>
     <row r="1303">
       <c r="A1303" t="n">
-        <v>-0.5693679451942444</v>
+        <v>0.03114558112759419</v>
       </c>
     </row>
     <row r="1304">
       <c r="A1304" t="n">
-        <v>-0.2606801390647888</v>
+        <v>0.112231649883287</v>
       </c>
     </row>
     <row r="1305">
       <c r="A1305" t="n">
-        <v>0.2257893681526184</v>
+        <v>0.240017390448744</v>
       </c>
     </row>
     <row r="1306">
       <c r="A1306" t="n">
-        <v>0.9291301369667053</v>
+        <v>0.4247708429865599</v>
       </c>
     </row>
     <row r="1307">
       <c r="A1307" t="n">
-        <v>1.647153377532959</v>
+        <v>0.6133810851038788</v>
       </c>
     </row>
     <row r="1308">
       <c r="A1308" t="n">
-        <v>2.142529487609863</v>
+        <v>0.7435064108343614</v>
       </c>
     </row>
     <row r="1309">
       <c r="A1309" t="n">
-        <v>2.38549280166626</v>
+        <v>0.8073279794143198</v>
       </c>
     </row>
     <row r="1310">
       <c r="A1310" t="n">
-        <v>2.429527282714844</v>
+        <v>0.8188949505969434</v>
       </c>
     </row>
     <row r="1311">
       <c r="A1311" t="n">
-        <v>2.190067529678345</v>
+        <v>0.7559936969245005</v>
       </c>
     </row>
     <row r="1312">
       <c r="A1312" t="n">
-        <v>1.701825022697449</v>
+        <v>0.6277422250348015</v>
       </c>
     </row>
     <row r="1313">
       <c r="A1313" t="n">
-        <v>1.248464822769165</v>
+        <v>0.5086536325717005</v>
       </c>
     </row>
     <row r="1314">
       <c r="A1314" t="n">
-        <v>0.5713199377059937</v>
+        <v>0.3307813110302028</v>
       </c>
     </row>
     <row r="1315">
       <c r="A1315" t="n">
-        <v>-0.1125011220574379</v>
+        <v>0.1511552928734806</v>
       </c>
     </row>
     <row r="1316">
       <c r="A1316" t="n">
-        <v>-0.4798660278320312</v>
+        <v>0.05465593197687654</v>
       </c>
     </row>
     <row r="1317">
       <c r="A1317" t="n">
-        <v>-0.6557758450508118</v>
+        <v>0.008447966354089648</v>
       </c>
     </row>
     <row r="1318">
       <c r="A1318" t="n">
-        <v>-0.7321122288703918</v>
+        <v>-0.01160406402756908</v>
       </c>
     </row>
     <row r="1319">
       <c r="A1319" t="n">
-        <v>-0.7462939620018005</v>
+        <v>-0.01532931965780296</v>
       </c>
     </row>
     <row r="1320">
       <c r="A1320" t="n">
-        <v>-0.7429625988006592</v>
+        <v>-0.01445423764868514</v>
       </c>
     </row>
     <row r="1321">
       <c r="A1321" t="n">
-        <v>-0.7677213549613953</v>
+        <v>-0.02095786417519896</v>
       </c>
     </row>
     <row r="1322">
       <c r="A1322" t="n">
-        <v>-0.7374293208122253</v>
+        <v>-0.01300075697822956</v>
       </c>
     </row>
     <row r="1323">
       <c r="A1323" t="n">
-        <v>-0.7018070816993713</v>
+        <v>-0.003643512303895813</v>
       </c>
     </row>
     <row r="1324">
       <c r="A1324" t="n">
-        <v>-0.7267144322395325</v>
+        <v>-0.01018617158074028</v>
       </c>
     </row>
     <row r="1325">
       <c r="A1325" t="n">
-        <v>-0.7540269494056702</v>
+        <v>-0.01736061968283251</v>
       </c>
     </row>
     <row r="1326">
       <c r="A1326" t="n">
-        <v>-0.7350655794143677</v>
+        <v>-0.01237984972597811</v>
       </c>
     </row>
     <row r="1327">
       <c r="A1327" t="n">
-        <v>-0.5529595017433167</v>
+        <v>0.03545574870602408</v>
       </c>
     </row>
     <row r="1328">
       <c r="A1328" t="n">
-        <v>-0.1749439090490341</v>
+        <v>0.1347528305190906</v>
       </c>
     </row>
     <row r="1329">
       <c r="A1329" t="n">
-        <v>0.3094161748886108</v>
+        <v>0.2619844680791767</v>
       </c>
     </row>
     <row r="1330">
       <c r="A1330" t="n">
-        <v>0.9169557690620422</v>
+        <v>0.42157288176693</v>
       </c>
     </row>
     <row r="1331">
       <c r="A1331" t="n">
-        <v>1.579392790794373</v>
+        <v>0.5955817438726709</v>
       </c>
     </row>
     <row r="1332">
       <c r="A1332" t="n">
-        <v>2.047167301177979</v>
+        <v>0.7184566853441807</v>
       </c>
     </row>
     <row r="1333">
       <c r="A1333" t="n">
-        <v>2.285248994827271</v>
+        <v>0.7809959505739261</v>
       </c>
     </row>
     <row r="1334">
       <c r="A1334" t="n">
-        <v>2.362897872924805</v>
+        <v>0.801392746764763</v>
       </c>
     </row>
     <row r="1335">
       <c r="A1335" t="n">
-        <v>2.257896661758423</v>
+        <v>0.7738110436362058</v>
       </c>
     </row>
     <row r="1336">
       <c r="A1336" t="n">
-        <v>1.860461711883545</v>
+        <v>0.6694128878569174</v>
       </c>
     </row>
     <row r="1337">
       <c r="A1337" t="n">
-        <v>1.386210918426514</v>
+        <v>0.5448367572741253</v>
       </c>
     </row>
     <row r="1338">
       <c r="A1338" t="n">
-        <v>0.6758027076721191</v>
+        <v>0.3582268300984407</v>
       </c>
     </row>
     <row r="1339">
       <c r="A1339" t="n">
-        <v>-0.048350989818573</v>
+        <v>0.1680062404331842</v>
       </c>
     </row>
     <row r="1340">
       <c r="A1340" t="n">
-        <v>-0.4631680548191071</v>
+        <v>0.05904215313923387</v>
       </c>
     </row>
     <row r="1341">
       <c r="A1341" t="n">
-        <v>-0.6124223470687866</v>
+        <v>0.01983605700220559</v>
       </c>
     </row>
     <row r="1342">
       <c r="A1342" t="n">
-        <v>-0.6876270771026611</v>
+        <v>8.128927509071238e-05</v>
       </c>
     </row>
     <row r="1343">
       <c r="A1343" t="n">
-        <v>-0.6991651654243469</v>
+        <v>-0.002949534114703695</v>
       </c>
     </row>
     <row r="1344">
       <c r="A1344" t="n">
-        <v>-0.6830329895019531</v>
+        <v>0.001288063548851498</v>
       </c>
     </row>
     <row r="1345">
       <c r="A1345" t="n">
-        <v>-0.7331352233886719</v>
+        <v>-0.01187278408128953</v>
       </c>
     </row>
     <row r="1346">
       <c r="A1346" t="n">
-        <v>-0.7318387031555176</v>
+        <v>-0.01153221433191431</v>
       </c>
     </row>
     <row r="1347">
       <c r="A1347" t="n">
-        <v>-0.6816615462303162</v>
+        <v>0.001648314071257456</v>
       </c>
     </row>
     <row r="1348">
       <c r="A1348" t="n">
-        <v>-0.6907839775085449</v>
+        <v>-0.0007479648719260767</v>
       </c>
     </row>
     <row r="1349">
       <c r="A1349" t="n">
-        <v>-0.7119259238243103</v>
+        <v>-0.0063015283057547</v>
       </c>
     </row>
     <row r="1350">
       <c r="A1350" t="n">
-        <v>-0.702083945274353</v>
+        <v>-0.003716238788166126</v>
       </c>
     </row>
     <row r="1351">
       <c r="A1351" t="n">
-        <v>-0.5792143940925598</v>
+        <v>0.02855911733953842</v>
       </c>
     </row>
     <row r="1352">
       <c r="A1352" t="n">
-        <v>-0.2682235538959503</v>
+        <v>0.1102501467545377</v>
       </c>
     </row>
     <row r="1353">
       <c r="A1353" t="n">
-        <v>0.1921707987785339</v>
+        <v>0.2311864694547613</v>
       </c>
     </row>
     <row r="1354">
       <c r="A1354" t="n">
-        <v>0.8794404268264771</v>
+        <v>0.4117183570351346</v>
       </c>
     </row>
     <row r="1355">
       <c r="A1355" t="n">
-        <v>1.597992181777954</v>
+        <v>0.600467429235559</v>
       </c>
     </row>
     <row r="1356">
       <c r="A1356" t="n">
-        <v>2.121273756027222</v>
+        <v>0.737922958302907</v>
       </c>
     </row>
     <row r="1357">
       <c r="A1357" t="n">
-        <v>2.486402988433838</v>
+        <v>0.8338350528390284</v>
       </c>
     </row>
     <row r="1358">
       <c r="A1358" t="n">
-        <v>2.568832874298096</v>
+        <v>0.8554877234660956</v>
       </c>
     </row>
     <row r="1359">
       <c r="A1359" t="n">
-        <v>2.354219436645508</v>
+        <v>0.7991130963643847</v>
       </c>
     </row>
     <row r="1360">
       <c r="A1360" t="n">
-        <v>1.865824103355408</v>
+        <v>0.6708214800816459</v>
       </c>
     </row>
     <row r="1361">
       <c r="A1361" t="n">
-        <v>1.300694346427917</v>
+        <v>0.5223732763748463</v>
       </c>
     </row>
     <row r="1362">
       <c r="A1362" t="n">
-        <v>0.6159231662750244</v>
+        <v>0.342497680730137</v>
       </c>
     </row>
     <row r="1363">
       <c r="A1363" t="n">
-        <v>-0.0805061012506485</v>
+        <v>0.1595597403620579</v>
       </c>
     </row>
     <row r="1364">
       <c r="A1364" t="n">
-        <v>-0.4825656712055206</v>
+        <v>0.0539467900417176</v>
       </c>
     </row>
     <row r="1365">
       <c r="A1365" t="n">
-        <v>-0.633205235004425</v>
+        <v>0.01437681097230473</v>
       </c>
     </row>
     <row r="1366">
       <c r="A1366" t="n">
-        <v>-0.7107582688331604</v>
+        <v>-0.005994808859714762</v>
       </c>
     </row>
     <row r="1367">
       <c r="A1367" t="n">
-        <v>-0.719268262386322</v>
+        <v>-0.008230212748888077</v>
       </c>
     </row>
     <row r="1368">
       <c r="A1368" t="n">
-        <v>-0.7218999266624451</v>
+        <v>-0.008921497944475387</v>
       </c>
     </row>
     <row r="1369">
       <c r="A1369" t="n">
-        <v>-0.769050657749176</v>
+        <v>-0.02130704524133384</v>
       </c>
     </row>
     <row r="1370">
       <c r="A1370" t="n">
-        <v>-0.7300596833229065</v>
+        <v>-0.01106490165677629</v>
       </c>
     </row>
     <row r="1371">
       <c r="A1371" t="n">
-        <v>-0.6312518715858459</v>
+        <v>0.01488992019566465</v>
       </c>
     </row>
     <row r="1372">
       <c r="A1372" t="n">
-        <v>-0.704065203666687</v>
+        <v>-0.004236675459241557</v>
       </c>
     </row>
     <row r="1373">
       <c r="A1373" t="n">
-        <v>-0.703193724155426</v>
+        <v>-0.004007755345890346</v>
       </c>
     </row>
     <row r="1374">
       <c r="A1374" t="n">
-        <v>-0.6573613882064819</v>
+        <v>0.008031476104773255</v>
       </c>
     </row>
     <row r="1375">
       <c r="A1375" t="n">
-        <v>-0.5228139758110046</v>
+        <v>0.04337437114554751</v>
       </c>
     </row>
     <row r="1376">
       <c r="A1376" t="n">
-        <v>-0.1632301211357117</v>
+        <v>0.1378298066524819</v>
       </c>
     </row>
     <row r="1377">
       <c r="A1377" t="n">
-        <v>0.2880109846591949</v>
+        <v>0.2563617557717679</v>
       </c>
     </row>
     <row r="1378">
       <c r="A1378" t="n">
-        <v>0.9603950381278992</v>
+        <v>0.4329835027510772</v>
       </c>
     </row>
     <row r="1379">
       <c r="A1379" t="n">
-        <v>1.584643006324768</v>
+        <v>0.5969608697371416</v>
       </c>
     </row>
     <row r="1380">
       <c r="A1380" t="n">
-        <v>2.026573896408081</v>
+        <v>0.7130472127251508</v>
       </c>
     </row>
     <row r="1381">
       <c r="A1381" t="n">
-        <v>2.417347192764282</v>
+        <v>0.8156954863111157</v>
       </c>
     </row>
     <row r="1382">
       <c r="A1382" t="n">
-        <v>2.487998008728027</v>
+        <v>0.8342540325417351</v>
       </c>
     </row>
     <row r="1383">
       <c r="A1383" t="n">
-        <v>2.261966466903687</v>
+        <v>0.7748800994695701</v>
       </c>
     </row>
     <row r="1384">
       <c r="A1384" t="n">
-        <v>1.817396521568298</v>
+        <v>0.658100529825468</v>
       </c>
     </row>
     <row r="1385">
       <c r="A1385" t="n">
-        <v>1.132832884788513</v>
+        <v>0.4782794516443171</v>
       </c>
     </row>
     <row r="1386">
       <c r="A1386" t="n">
-        <v>0.4934993088245392</v>
+        <v>0.3103393993680151</v>
       </c>
     </row>
     <row r="1387">
       <c r="A1387" t="n">
-        <v>-0.1235579773783684</v>
+        <v>0.1482508796994833</v>
       </c>
     </row>
     <row r="1388">
       <c r="A1388" t="n">
-        <v>-0.4710250198841095</v>
+        <v>0.05697828667991321</v>
       </c>
     </row>
     <row r="1389">
       <c r="A1389" t="n">
-        <v>-0.6115543842315674</v>
+        <v>0.02006405335612257</v>
       </c>
     </row>
     <row r="1390">
       <c r="A1390" t="n">
-        <v>-0.7472004890441895</v>
+        <v>-0.0155674460516172</v>
       </c>
     </row>
     <row r="1391">
       <c r="A1391" t="n">
-        <v>-0.7790907025337219</v>
+        <v>-0.02394436276909037</v>
       </c>
     </row>
     <row r="1392">
       <c r="A1392" t="n">
-        <v>-0.7747035622596741</v>
+        <v>-0.02279194938949244</v>
       </c>
     </row>
     <row r="1393">
       <c r="A1393" t="n">
-        <v>-0.784932017326355</v>
+        <v>-0.02547875850320774</v>
       </c>
     </row>
     <row r="1394">
       <c r="A1394" t="n">
-        <v>-0.7621163129806519</v>
+        <v>-0.01948553254950947</v>
       </c>
     </row>
     <row r="1395">
       <c r="A1395" t="n">
-        <v>-0.7345713973045349</v>
+        <v>-0.01225003804006095</v>
       </c>
     </row>
     <row r="1396">
       <c r="A1396" t="n">
-        <v>-0.753853976726532</v>
+        <v>-0.01731518324422054</v>
       </c>
     </row>
     <row r="1397">
       <c r="A1397" t="n">
-        <v>-0.7653301954269409</v>
+        <v>-0.02032975473074852</v>
       </c>
     </row>
     <row r="1398">
       <c r="A1398" t="n">
-        <v>-0.7063310742378235</v>
+        <v>-0.004831874016730464</v>
       </c>
     </row>
     <row r="1399">
       <c r="A1399" t="n">
-        <v>-0.5170847773551941</v>
+        <v>0.04487931617634683</v>
       </c>
     </row>
     <row r="1400">
       <c r="A1400" t="n">
-        <v>-0.1637607514858246</v>
+        <v>0.137690420748022</v>
       </c>
     </row>
     <row r="1401">
       <c r="A1401" t="n">
-        <v>0.2940717935562134</v>
+        <v>0.2579538081858262</v>
       </c>
     </row>
     <row r="1402">
       <c r="A1402" t="n">
-        <v>0.7956636548042297</v>
+        <v>0.3897118865447613</v>
       </c>
     </row>
     <row r="1403">
       <c r="A1403" t="n">
-        <v>1.307633638381958</v>
+        <v>0.5241960885926544</v>
       </c>
     </row>
     <row r="1404">
       <c r="A1404" t="n">
-        <v>1.426939487457275</v>
+        <v>0.5555353319608245</v>
       </c>
     </row>
     <row r="1405">
       <c r="A1405" t="n">
-        <v>1.36259937286377</v>
+        <v>0.5386344798633813</v>
       </c>
     </row>
     <row r="1406">
       <c r="A1406" t="n">
-        <v>1.594236731529236</v>
+        <v>0.59948094810145</v>
       </c>
     </row>
     <row r="1407">
       <c r="A1407" t="n">
-        <v>1.289238095283508</v>
+        <v>0.519363949963072</v>
       </c>
     </row>
     <row r="1408">
       <c r="A1408" t="n">
-        <v>1.007279872894287</v>
+        <v>0.4452992044405449</v>
       </c>
     </row>
     <row r="1409">
       <c r="A1409" t="n">
-        <v>0.7352977991104126</v>
+        <v>0.3738549922065628</v>
       </c>
     </row>
     <row r="1410">
       <c r="A1410" t="n">
-        <v>0.1784299910068512</v>
+        <v>0.2275770360349451</v>
       </c>
     </row>
     <row r="1411">
       <c r="A1411" t="n">
-        <v>-0.3451823890209198</v>
+        <v>0.09003461095302215</v>
       </c>
     </row>
     <row r="1412">
       <c r="A1412" t="n">
-        <v>-0.5772978663444519</v>
+        <v>0.02906255057424836</v>
       </c>
     </row>
     <row r="1413">
       <c r="A1413" t="n">
-        <v>-0.6521667242050171</v>
+        <v>0.009396009701571229</v>
       </c>
     </row>
     <row r="1414">
       <c r="A1414" t="n">
-        <v>-0.7289312481880188</v>
+        <v>-0.01076848447696882</v>
       </c>
     </row>
     <row r="1415">
       <c r="A1415" t="n">
-        <v>-0.7670222520828247</v>
+        <v>-0.02077422393106407</v>
       </c>
     </row>
     <row r="1416">
       <c r="A1416" t="n">
-        <v>-0.7672212719917297</v>
+        <v>-0.02082650245226506</v>
       </c>
     </row>
     <row r="1417">
       <c r="A1417" t="n">
-        <v>-0.7806522250175476</v>
+        <v>-0.02435454327176287</v>
       </c>
     </row>
     <row r="1418">
       <c r="A1418" t="n">
-        <v>-0.7585963606834412</v>
+        <v>-0.01856091198361418</v>
       </c>
     </row>
     <row r="1419">
       <c r="A1419" t="n">
-        <v>-0.6962904930114746</v>
+        <v>-0.002194415576517866</v>
       </c>
     </row>
     <row r="1420">
       <c r="A1420" t="n">
-        <v>-0.7175895571708679</v>
+        <v>-0.007789250703034656</v>
       </c>
     </row>
     <row r="1421">
       <c r="A1421" t="n">
-        <v>-0.7606534957885742</v>
+        <v>-0.01910127993875335</v>
       </c>
     </row>
     <row r="1422">
       <c r="A1422" t="n">
-        <v>-0.7564034461975098</v>
+        <v>-0.01798487752015043</v>
       </c>
     </row>
     <row r="1423">
       <c r="A1423" t="n">
-        <v>-0.6060627102851868</v>
+        <v>0.02150660548276315</v>
       </c>
     </row>
     <row r="1424">
       <c r="A1424" t="n">
-        <v>-0.2505301833152771</v>
+        <v>0.1148978388075978</v>
       </c>
     </row>
     <row r="1425">
       <c r="A1425" t="n">
-        <v>0.2876230776309967</v>
+        <v>0.2562598604090917</v>
       </c>
     </row>
     <row r="1426">
       <c r="A1426" t="n">
-        <v>1.008881449699402</v>
+        <v>0.4457199064066038</v>
       </c>
     </row>
     <row r="1427">
       <c r="A1427" t="n">
-        <v>1.752036333084106</v>
+        <v>0.6409317248643428</v>
       </c>
     </row>
     <row r="1428">
       <c r="A1428" t="n">
-        <v>2.253462076187134</v>
+        <v>0.7726461673327158</v>
       </c>
     </row>
     <row r="1429">
       <c r="A1429" t="n">
-        <v>2.509431123733521</v>
+        <v>0.8398840801253293</v>
       </c>
     </row>
     <row r="1430">
       <c r="A1430" t="n">
-        <v>2.537096500396729</v>
+        <v>0.8471512173096347</v>
       </c>
     </row>
     <row r="1431">
       <c r="A1431" t="n">
-        <v>2.3209228515625</v>
+        <v>0.7903667541579216</v>
       </c>
     </row>
     <row r="1432">
       <c r="A1432" t="n">
-        <v>1.899752616882324</v>
+        <v>0.6797338171613563</v>
       </c>
     </row>
     <row r="1433">
       <c r="A1433" t="n">
-        <v>1.262974858283997</v>
+        <v>0.5124651266250475</v>
       </c>
     </row>
     <row r="1434">
       <c r="A1434" t="n">
-        <v>0.5264993906021118</v>
+        <v>0.3190078561286218</v>
       </c>
     </row>
     <row r="1435">
       <c r="A1435" t="n">
-        <v>-0.1451658308506012</v>
+        <v>0.1425749318404428</v>
       </c>
     </row>
     <row r="1436">
       <c r="A1436" t="n">
-        <v>-0.5252166986465454</v>
+        <v>0.04274322425482185</v>
       </c>
     </row>
     <row r="1437">
       <c r="A1437" t="n">
-        <v>-0.6564878821372986</v>
+        <v>0.008260928554069596</v>
       </c>
     </row>
     <row r="1438">
       <c r="A1438" t="n">
-        <v>-0.724821150302887</v>
+        <v>-0.009688844552459913</v>
       </c>
     </row>
     <row r="1439">
       <c r="A1439" t="n">
-        <v>-0.7343902587890625</v>
+        <v>-0.01220245660072888</v>
       </c>
     </row>
     <row r="1440">
       <c r="A1440" t="n">
-        <v>-0.7012999057769775</v>
+        <v>-0.003510287405153911</v>
       </c>
     </row>
     <row r="1441">
       <c r="A1441" t="n">
-        <v>-0.7442651391029358</v>
+        <v>-0.01479638874895622</v>
       </c>
     </row>
     <row r="1442">
       <c r="A1442" t="n">
-        <v>-0.7398016452789307</v>
+        <v>-0.01362391882977806</v>
       </c>
     </row>
     <row r="1443">
       <c r="A1443" t="n">
-        <v>-0.653516411781311</v>
+        <v>0.009041473962105778</v>
       </c>
     </row>
     <row r="1444">
       <c r="A1444" t="n">
-        <v>-0.6856489777565002</v>
+        <v>0.0006008961283692771</v>
       </c>
     </row>
     <row r="1445">
       <c r="A1445" t="n">
-        <v>-0.73429274559021</v>
+        <v>-0.01217684184760376</v>
       </c>
     </row>
     <row r="1446">
       <c r="A1446" t="n">
-        <v>-0.728468656539917</v>
+        <v>-0.01064697096902009</v>
       </c>
     </row>
     <row r="1447">
       <c r="A1447" t="n">
-        <v>-0.5975717306137085</v>
+        <v>0.02373701480821588</v>
       </c>
     </row>
     <row r="1448">
       <c r="A1448" t="n">
-        <v>-0.3678204715251923</v>
+        <v>0.08408804267922171</v>
       </c>
     </row>
     <row r="1449">
       <c r="A1449" t="n">
-        <v>0.09056974202394485</v>
+        <v>0.2044979184006952</v>
       </c>
     </row>
     <row r="1450">
       <c r="A1450" t="n">
-        <v>0.9548422694206238</v>
+        <v>0.4315249022613845</v>
       </c>
     </row>
     <row r="1451">
       <c r="A1451" t="n">
-        <v>1.771334409713745</v>
+        <v>0.6460009408727888</v>
       </c>
     </row>
     <row r="1452">
       <c r="A1452" t="n">
-        <v>2.264323949813843</v>
+        <v>0.7754993627431674</v>
       </c>
     </row>
     <row r="1453">
       <c r="A1453" t="n">
-        <v>2.507163286209106</v>
+        <v>0.8392883648888347</v>
       </c>
     </row>
     <row r="1454">
       <c r="A1454" t="n">
-        <v>2.485840559005737</v>
+        <v>0.8336873139573113</v>
       </c>
     </row>
     <row r="1455">
       <c r="A1455" t="n">
-        <v>2.290540456771851</v>
+        <v>0.7823859110405744</v>
       </c>
     </row>
     <row r="1456">
       <c r="A1456" t="n">
-        <v>1.846572518348694</v>
+        <v>0.6657644764860591</v>
       </c>
     </row>
     <row r="1457">
       <c r="A1457" t="n">
-        <v>1.288213968276978</v>
+        <v>0.5190949324274999</v>
       </c>
     </row>
     <row r="1458">
       <c r="A1458" t="n">
-        <v>0.5839841365814209</v>
+        <v>0.3341079409791617</v>
       </c>
     </row>
     <row r="1459">
       <c r="A1459" t="n">
-        <v>-0.1132438853383064</v>
+        <v>0.1509601839211158</v>
       </c>
     </row>
     <row r="1460">
       <c r="A1460" t="n">
-        <v>-0.497015655040741</v>
+        <v>0.05015107035498029</v>
       </c>
     </row>
     <row r="1461">
       <c r="A1461" t="n">
-        <v>-0.6383395791053772</v>
+        <v>0.01302812219834457</v>
       </c>
     </row>
     <row r="1462">
       <c r="A1462" t="n">
-        <v>-0.7104130983352661</v>
+        <v>-0.005904139522705187</v>
       </c>
     </row>
     <row r="1463">
       <c r="A1463" t="n">
-        <v>-0.7199023962020874</v>
+        <v>-0.008396786928899252</v>
       </c>
     </row>
     <row r="1464">
       <c r="A1464" t="n">
-        <v>-0.6796195507049561</v>
+        <v>0.002184705163747608</v>
       </c>
     </row>
     <row r="1465">
       <c r="A1465" t="n">
-        <v>-0.7200068831443787</v>
+        <v>-0.008424233543953247</v>
       </c>
     </row>
     <row r="1466">
       <c r="A1466" t="n">
-        <v>-0.7260092496871948</v>
+        <v>-0.01000093432876997</v>
       </c>
     </row>
     <row r="1467">
       <c r="A1467" t="n">
-        <v>-0.6781607866287231</v>
+        <v>0.002567893102613433</v>
       </c>
     </row>
     <row r="1468">
       <c r="A1468" t="n">
-        <v>-0.7077996730804443</v>
+        <v>-0.005217645350624189</v>
       </c>
     </row>
     <row r="1469">
       <c r="A1469" t="n">
-        <v>-0.7372410893440247</v>
+        <v>-0.01295131236308947</v>
       </c>
     </row>
     <row r="1470">
       <c r="A1470" t="n">
-        <v>-0.7145693898200989</v>
+        <v>-0.006995913575375462</v>
       </c>
     </row>
     <row r="1471">
       <c r="A1471" t="n">
-        <v>-0.5800661444664001</v>
+        <v>0.02833537967318259</v>
       </c>
     </row>
     <row r="1472">
       <c r="A1472" t="n">
-        <v>-0.2905167937278748</v>
+        <v>0.1043941617045792</v>
       </c>
     </row>
     <row r="1473">
       <c r="A1473" t="n">
-        <v>0.1779674887657166</v>
+        <v>0.2274555460124057</v>
       </c>
     </row>
     <row r="1474">
       <c r="A1474" t="n">
-        <v>0.8137965798377991</v>
+        <v>0.394475040698629</v>
       </c>
     </row>
     <row r="1475">
       <c r="A1475" t="n">
-        <v>1.569899559020996</v>
+        <v>0.5930880631084656</v>
       </c>
     </row>
     <row r="1476">
       <c r="A1476" t="n">
-        <v>2.115769624710083</v>
+        <v>0.7364771338758977</v>
       </c>
     </row>
     <row r="1477">
       <c r="A1477" t="n">
-        <v>2.387100219726562</v>
+        <v>0.8077502157604559</v>
       </c>
     </row>
     <row r="1478">
       <c r="A1478" t="n">
-        <v>2.478885650634766</v>
+        <v>0.8318603996213378</v>
       </c>
     </row>
     <row r="1479">
       <c r="A1479" t="n">
-        <v>2.289598941802979</v>
+        <v>0.7821385940232368</v>
       </c>
     </row>
     <row r="1480">
       <c r="A1480" t="n">
-        <v>1.907096862792969</v>
+        <v>0.6816630026265555</v>
       </c>
     </row>
     <row r="1481">
       <c r="A1481" t="n">
-        <v>1.33482551574707</v>
+        <v>0.5313388470490712</v>
       </c>
     </row>
     <row r="1482">
       <c r="A1482" t="n">
-        <v>0.6596697568893433</v>
+        <v>0.3539890288946712</v>
       </c>
     </row>
     <row r="1483">
       <c r="A1483" t="n">
-        <v>0.01247174851596355</v>
+        <v>0.1839831486380889</v>
       </c>
     </row>
     <row r="1484">
       <c r="A1484" t="n">
-        <v>-0.4861917495727539</v>
+        <v>0.05299429229493036</v>
       </c>
     </row>
     <row r="1485">
       <c r="A1485" t="n">
-        <v>-0.7542717456817627</v>
+        <v>-0.0174249227336179</v>
       </c>
     </row>
     <row r="1486">
       <c r="A1486" t="n">
-        <v>-0.7694417834281921</v>
+        <v>-0.0214097860787465</v>
       </c>
     </row>
     <row r="1487">
       <c r="A1487" t="n">
-        <v>-0.6515270471572876</v>
+        <v>0.009564039976961758</v>
       </c>
     </row>
     <row r="1488">
       <c r="A1488" t="n">
-        <v>-0.7010613679885864</v>
+        <v>-0.003447628333022645</v>
       </c>
     </row>
     <row r="1489">
       <c r="A1489" t="n">
-        <v>-0.7489463686943054</v>
+        <v>-0.01602605346835817</v>
       </c>
     </row>
   </sheetData>
